--- a/05_Steamlit/Negtgel_office.xlsx
+++ b/05_Steamlit/Negtgel_office.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Office\04_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Office\05_Steamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F567630-7F80-4A27-BA73-A9B3CBEDB8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7990346-3F0F-4BF8-BAAC-913F1D99FD93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2411,19 +2411,19 @@
     <xf numFmtId="43" fontId="1" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="5" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2435,11 +2435,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2780,8 +2780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:C17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2798,20 +2798,20 @@
   <sheetData>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="79" t="s">
         <v>427</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="79" t="s">
         <v>428</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -3148,7 +3148,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B27" s="88" t="s">
+      <c r="B27" s="82" t="s">
         <v>73</v>
       </c>
       <c r="C27" s="44" t="s">
@@ -3167,7 +3167,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B28" s="88"/>
+      <c r="B28" s="82"/>
       <c r="C28" s="44" t="s">
         <v>75</v>
       </c>
@@ -3184,7 +3184,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B29" s="88"/>
+      <c r="B29" s="82"/>
       <c r="C29" s="44" t="s">
         <v>76</v>
       </c>
@@ -3201,10 +3201,10 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B30" s="80" t="s">
+      <c r="B30" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="81"/>
+      <c r="C30" s="83"/>
       <c r="D30" s="48" t="s">
         <v>50</v>
       </c>
@@ -3218,10 +3218,10 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B31" s="80" t="s">
+      <c r="B31" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="81"/>
+      <c r="C31" s="83"/>
       <c r="D31" s="47" t="s">
         <v>43</v>
       </c>
@@ -3235,10 +3235,10 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B32" s="80" t="s">
+      <c r="B32" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="81"/>
+      <c r="C32" s="83"/>
       <c r="D32" s="48" t="s">
         <v>35</v>
       </c>
@@ -3252,10 +3252,10 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B33" s="80" t="s">
+      <c r="B33" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="81"/>
+      <c r="C33" s="83"/>
       <c r="D33" s="48" t="s">
         <v>35</v>
       </c>
@@ -3285,10 +3285,10 @@
         <f>+A33+1</f>
         <v>25</v>
       </c>
-      <c r="B36" s="79" t="s">
+      <c r="B36" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="80"/>
+      <c r="C36" s="81"/>
       <c r="D36" s="17">
         <f>+E36</f>
         <v>5000000</v>
@@ -3303,10 +3303,10 @@
       <c r="A37" s="47">
         <v>18</v>
       </c>
-      <c r="B37" s="81" t="s">
+      <c r="B37" s="83" t="s">
         <v>174</v>
       </c>
-      <c r="C37" s="81"/>
+      <c r="C37" s="83"/>
       <c r="D37" s="49">
         <f>IF(D19&lt;2000,IF(D23=2,1,IF(D23=3,1.25,IF(D23=4,1.35,IF(D23=1,0.75,""))))*D36,D22*D36)</f>
         <v>245000000</v>
@@ -3318,10 +3318,10 @@
         <f t="shared" ref="A38:A41" si="1">+A37+1</f>
         <v>19</v>
       </c>
-      <c r="B38" s="81" t="s">
+      <c r="B38" s="83" t="s">
         <v>172</v>
       </c>
-      <c r="C38" s="81"/>
+      <c r="C38" s="83"/>
       <c r="D38" s="52">
         <f>+E8</f>
         <v>0.7</v>
@@ -3333,10 +3333,10 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B39" s="81" t="s">
+      <c r="B39" s="83" t="s">
         <v>173</v>
       </c>
-      <c r="C39" s="81"/>
+      <c r="C39" s="83"/>
       <c r="D39" s="49">
         <f>+D37*D38</f>
         <v>171500000</v>
@@ -3348,10 +3348,10 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B40" s="79" t="s">
+      <c r="B40" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="80"/>
+      <c r="C40" s="81"/>
       <c r="D40" s="17">
         <v>1</v>
       </c>
@@ -3362,10 +3362,10 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B41" s="82" t="s">
+      <c r="B41" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="83"/>
+      <c r="C41" s="88"/>
       <c r="D41" s="51">
         <f>+D39*D40</f>
         <v>171500000</v>
@@ -3390,10 +3390,10 @@
       <c r="A44" s="47">
         <v>21</v>
       </c>
-      <c r="B44" s="79" t="s">
+      <c r="B44" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="80"/>
+      <c r="C44" s="81"/>
       <c r="D44" s="47">
         <v>3000</v>
       </c>
@@ -3404,10 +3404,10 @@
         <f>+A44+1</f>
         <v>22</v>
       </c>
-      <c r="B45" s="79" t="s">
+      <c r="B45" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="80"/>
+      <c r="C45" s="81"/>
       <c r="D45" s="47"/>
       <c r="E45" s="6"/>
     </row>
@@ -3416,10 +3416,10 @@
         <f t="shared" ref="A46:A47" si="2">+A45+1</f>
         <v>23</v>
       </c>
-      <c r="B46" s="79" t="s">
+      <c r="B46" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="80"/>
+      <c r="C46" s="81"/>
       <c r="D46" s="47"/>
       <c r="E46" s="6"/>
     </row>
@@ -3428,10 +3428,10 @@
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="B47" s="79" t="s">
+      <c r="B47" s="80" t="s">
         <v>175</v>
       </c>
-      <c r="C47" s="80"/>
+      <c r="C47" s="81"/>
       <c r="D47" s="59">
         <f ca="1">+TODAY()</f>
         <v>45838</v>
@@ -3460,6 +3460,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B46:C46"/>
@@ -3476,27 +3497,6 @@
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3604,11 +3604,7 @@
   <dimension ref="A1:P194"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C157" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="E2" sqref="E2"/>
-      <selection pane="topRight" activeCell="E2" sqref="E2"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F1:F1048576"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3779,7 +3775,7 @@
         <v>106.91315899999999</v>
       </c>
       <c r="N4" s="24">
-        <f t="shared" ref="N4:N35" si="0">+IF(O4="",0,N3+1)</f>
+        <f>+IF(O4="",0,N3+1)</f>
         <v>2</v>
       </c>
       <c r="O4" s="24">
@@ -3831,7 +3827,7 @@
         <v>106.911975</v>
       </c>
       <c r="N5" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="N5:N35" si="0">+IF(O5="",0,N4+1)</f>
         <v>3</v>
       </c>
       <c r="O5" s="24" t="str">

--- a/05_Steamlit/Negtgel_office.xlsx
+++ b/05_Steamlit/Negtgel_office.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Office\05_Steamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7990346-3F0F-4BF8-BAAC-913F1D99FD93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4B906F-979A-4040-9349-2960A262472C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="3" r:id="rId1"/>
@@ -2411,19 +2411,19 @@
     <xf numFmtId="43" fontId="1" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="5" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2435,11 +2435,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2780,8 +2780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2798,20 +2798,20 @@
   <sheetData>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="87" t="s">
         <v>427</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="87" t="s">
         <v>428</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -3148,7 +3148,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B27" s="82" t="s">
+      <c r="B27" s="88" t="s">
         <v>73</v>
       </c>
       <c r="C27" s="44" t="s">
@@ -3167,7 +3167,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B28" s="82"/>
+      <c r="B28" s="88"/>
       <c r="C28" s="44" t="s">
         <v>75</v>
       </c>
@@ -3184,7 +3184,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B29" s="82"/>
+      <c r="B29" s="88"/>
       <c r="C29" s="44" t="s">
         <v>76</v>
       </c>
@@ -3201,10 +3201,10 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B30" s="81" t="s">
+      <c r="B30" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="83"/>
+      <c r="C30" s="81"/>
       <c r="D30" s="48" t="s">
         <v>50</v>
       </c>
@@ -3218,10 +3218,10 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B31" s="81" t="s">
+      <c r="B31" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="83"/>
+      <c r="C31" s="81"/>
       <c r="D31" s="47" t="s">
         <v>43</v>
       </c>
@@ -3235,10 +3235,10 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B32" s="81" t="s">
+      <c r="B32" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="83"/>
+      <c r="C32" s="81"/>
       <c r="D32" s="48" t="s">
         <v>35</v>
       </c>
@@ -3252,10 +3252,10 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B33" s="81" t="s">
+      <c r="B33" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="83"/>
+      <c r="C33" s="81"/>
       <c r="D33" s="48" t="s">
         <v>35</v>
       </c>
@@ -3285,10 +3285,10 @@
         <f>+A33+1</f>
         <v>25</v>
       </c>
-      <c r="B36" s="80" t="s">
+      <c r="B36" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="81"/>
+      <c r="C36" s="80"/>
       <c r="D36" s="17">
         <f>+E36</f>
         <v>5000000</v>
@@ -3303,10 +3303,10 @@
       <c r="A37" s="47">
         <v>18</v>
       </c>
-      <c r="B37" s="83" t="s">
+      <c r="B37" s="81" t="s">
         <v>174</v>
       </c>
-      <c r="C37" s="83"/>
+      <c r="C37" s="81"/>
       <c r="D37" s="49">
         <f>IF(D19&lt;2000,IF(D23=2,1,IF(D23=3,1.25,IF(D23=4,1.35,IF(D23=1,0.75,""))))*D36,D22*D36)</f>
         <v>245000000</v>
@@ -3318,10 +3318,10 @@
         <f t="shared" ref="A38:A41" si="1">+A37+1</f>
         <v>19</v>
       </c>
-      <c r="B38" s="83" t="s">
+      <c r="B38" s="81" t="s">
         <v>172</v>
       </c>
-      <c r="C38" s="83"/>
+      <c r="C38" s="81"/>
       <c r="D38" s="52">
         <f>+E8</f>
         <v>0.7</v>
@@ -3333,10 +3333,10 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B39" s="83" t="s">
+      <c r="B39" s="81" t="s">
         <v>173</v>
       </c>
-      <c r="C39" s="83"/>
+      <c r="C39" s="81"/>
       <c r="D39" s="49">
         <f>+D37*D38</f>
         <v>171500000</v>
@@ -3348,10 +3348,10 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B40" s="80" t="s">
+      <c r="B40" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="81"/>
+      <c r="C40" s="80"/>
       <c r="D40" s="17">
         <v>1</v>
       </c>
@@ -3362,10 +3362,10 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B41" s="87" t="s">
+      <c r="B41" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="88"/>
+      <c r="C41" s="83"/>
       <c r="D41" s="51">
         <f>+D39*D40</f>
         <v>171500000</v>
@@ -3390,10 +3390,10 @@
       <c r="A44" s="47">
         <v>21</v>
       </c>
-      <c r="B44" s="80" t="s">
+      <c r="B44" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="81"/>
+      <c r="C44" s="80"/>
       <c r="D44" s="47">
         <v>3000</v>
       </c>
@@ -3404,10 +3404,10 @@
         <f>+A44+1</f>
         <v>22</v>
       </c>
-      <c r="B45" s="80" t="s">
+      <c r="B45" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="81"/>
+      <c r="C45" s="80"/>
       <c r="D45" s="47"/>
       <c r="E45" s="6"/>
     </row>
@@ -3416,10 +3416,10 @@
         <f t="shared" ref="A46:A47" si="2">+A45+1</f>
         <v>23</v>
       </c>
-      <c r="B46" s="80" t="s">
+      <c r="B46" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="81"/>
+      <c r="C46" s="80"/>
       <c r="D46" s="47"/>
       <c r="E46" s="6"/>
     </row>
@@ -3428,13 +3428,13 @@
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="B47" s="80" t="s">
+      <c r="B47" s="79" t="s">
         <v>175</v>
       </c>
-      <c r="C47" s="81"/>
+      <c r="C47" s="80"/>
       <c r="D47" s="59">
         <f ca="1">+TODAY()</f>
-        <v>45838</v>
+        <v>45839</v>
       </c>
       <c r="E47" s="6"/>
     </row>
@@ -3460,27 +3460,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B46:C46"/>
@@ -3497,6 +3476,27 @@
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3603,8 +3603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P194"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4385,7 +4385,7 @@
         <v>122</v>
       </c>
       <c r="K16" s="74">
-        <v>9628200</v>
+        <v>10500000</v>
       </c>
       <c r="L16" s="21">
         <v>47.913314999999997</v>
@@ -4697,7 +4697,7 @@
         <v>226</v>
       </c>
       <c r="K22" s="74">
-        <v>9585000</v>
+        <v>10000000</v>
       </c>
       <c r="L22" s="21">
         <v>47.915747000000003</v>
@@ -4747,7 +4747,7 @@
         <v>226</v>
       </c>
       <c r="K23" s="74">
-        <v>9585000</v>
+        <v>10000000</v>
       </c>
       <c r="L23" s="21">
         <v>47.915731999999998</v>
@@ -4799,7 +4799,7 @@
         <v>226</v>
       </c>
       <c r="K24" s="74">
-        <v>9585000</v>
+        <v>10000000</v>
       </c>
       <c r="L24" s="21">
         <v>47.915970000000002</v>
@@ -6771,7 +6771,7 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="72">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B63" s="21" t="s">
         <v>14</v>
@@ -6821,7 +6821,7 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="72">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B64" s="21" t="s">
         <v>14</v>
@@ -6873,7 +6873,7 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="72">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B65" s="21" t="s">
         <v>14</v>
@@ -6925,7 +6925,7 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="72">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B66" s="21" t="s">
         <v>14</v>
@@ -6977,7 +6977,7 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="72">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B67" s="21" t="s">
         <v>14</v>
@@ -7027,7 +7027,7 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="72">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B68" s="21" t="s">
         <v>14</v>
@@ -7075,7 +7075,7 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="72">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B69" s="21" t="s">
         <v>14</v>
@@ -7125,7 +7125,7 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="72">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B70" s="21" t="s">
         <v>14</v>
@@ -7171,7 +7171,7 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="72">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B71" s="21" t="s">
         <v>14</v>
@@ -7223,7 +7223,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="72">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B72" s="21" t="s">
         <v>14</v>
@@ -7275,7 +7275,7 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="72">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B73" s="21" t="s">
         <v>14</v>
@@ -7325,7 +7325,7 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="72">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B74" s="21" t="s">
         <v>14</v>
@@ -7377,7 +7377,7 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" s="72">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B75" s="21" t="s">
         <v>14</v>
@@ -7429,7 +7429,7 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="72">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B76" s="21" t="s">
         <v>14</v>
@@ -7481,7 +7481,7 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="72">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B77" s="21" t="s">
         <v>14</v>
@@ -7533,7 +7533,7 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" s="72">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B78" s="21" t="s">
         <v>14</v>
@@ -7585,7 +7585,7 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="72">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B79" s="21" t="s">
         <v>14</v>
@@ -7635,7 +7635,7 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" s="72">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B80" s="21" t="s">
         <v>14</v>
@@ -10926,7 +10926,7 @@
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" s="72">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B144" s="21" t="s">
         <v>12</v>
@@ -10978,7 +10978,7 @@
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145" s="72">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B145" s="21" t="s">
         <v>12</v>
@@ -11030,7 +11030,7 @@
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A146" s="72">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B146" s="21" t="s">
         <v>15</v>
@@ -11082,7 +11082,7 @@
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A147" s="72">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B147" s="21" t="s">
         <v>15</v>
@@ -11132,7 +11132,7 @@
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A148" s="72">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B148" s="21" t="s">
         <v>15</v>
@@ -11180,7 +11180,7 @@
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A149" s="72">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B149" s="21" t="s">
         <v>15</v>
@@ -11230,7 +11230,7 @@
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A150" s="72">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B150" s="21" t="s">
         <v>15</v>
@@ -11282,7 +11282,7 @@
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A151" s="72">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B151" s="21" t="s">
         <v>15</v>
@@ -11334,7 +11334,7 @@
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A152" s="72">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B152" s="21" t="s">
         <v>15</v>
@@ -11386,7 +11386,7 @@
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A153" s="72">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B153" s="21" t="s">
         <v>15</v>
@@ -11438,7 +11438,7 @@
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A154" s="72">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B154" s="21" t="s">
         <v>15</v>
@@ -11491,7 +11491,7 @@
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A155" s="72">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B155" s="21" t="s">
         <v>15</v>
@@ -11543,7 +11543,7 @@
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A156" s="72">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B156" s="21" t="s">
         <v>15</v>
@@ -11595,7 +11595,7 @@
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A157" s="72">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B157" s="21" t="s">
         <v>15</v>
@@ -11647,7 +11647,7 @@
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A158" s="72">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B158" s="21" t="s">
         <v>15</v>
@@ -11699,7 +11699,7 @@
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A159" s="72">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B159" s="21" t="s">
         <v>15</v>
@@ -11751,7 +11751,7 @@
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A160" s="72">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B160" s="21" t="s">
         <v>15</v>
@@ -11803,7 +11803,7 @@
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A161" s="72">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B161" s="21" t="s">
         <v>15</v>
@@ -11855,7 +11855,7 @@
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A162" s="72">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B162" s="21" t="s">
         <v>15</v>
@@ -11907,7 +11907,7 @@
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A163" s="72">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B163" s="21" t="s">
         <v>15</v>
@@ -11959,7 +11959,7 @@
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A164" s="72">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B164" s="21" t="s">
         <v>15</v>
@@ -12011,7 +12011,7 @@
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A165" s="72">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B165" s="21" t="s">
         <v>15</v>
@@ -12063,7 +12063,7 @@
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A166" s="72">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B166" s="21" t="s">
         <v>15</v>
@@ -12115,7 +12115,7 @@
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A167" s="72">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B167" s="21" t="s">
         <v>15</v>
@@ -12167,7 +12167,7 @@
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A168" s="72">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B168" s="21" t="s">
         <v>15</v>
@@ -12219,7 +12219,7 @@
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A169" s="72">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B169" s="21" t="s">
         <v>15</v>
@@ -12271,7 +12271,7 @@
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A170" s="72">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B170" s="21" t="s">
         <v>15</v>
@@ -12323,7 +12323,7 @@
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A171" s="72">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B171" s="21" t="s">
         <v>15</v>
@@ -12375,7 +12375,7 @@
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A172" s="72">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B172" s="21" t="s">
         <v>15</v>
@@ -12427,7 +12427,7 @@
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A173" s="72">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B173" s="21" t="s">
         <v>15</v>
@@ -12479,7 +12479,7 @@
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A174" s="72">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B174" s="21" t="s">
         <v>15</v>
@@ -12532,7 +12532,7 @@
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A175" s="72">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B175" s="21" t="s">
         <v>15</v>
@@ -12585,7 +12585,7 @@
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A176" s="72">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B176" s="21" t="s">
         <v>15</v>
@@ -12638,7 +12638,7 @@
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A177" s="72">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B177" s="21" t="s">
         <v>15</v>
@@ -12690,7 +12690,7 @@
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A178" s="72">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B178" s="21" t="s">
         <v>15</v>
@@ -12742,7 +12742,7 @@
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A179" s="72">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B179" s="21" t="s">
         <v>11</v>
@@ -12792,7 +12792,7 @@
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A180" s="72">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B180" s="21" t="s">
         <v>11</v>
@@ -12844,7 +12844,7 @@
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A181" s="72">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B181" s="21" t="s">
         <v>11</v>
@@ -12894,7 +12894,7 @@
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A182" s="72">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B182" s="21" t="s">
         <v>11</v>
@@ -12946,7 +12946,7 @@
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A183" s="72">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B183" s="21" t="s">
         <v>11</v>
@@ -12996,7 +12996,7 @@
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A184" s="72">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B184" s="21" t="s">
         <v>11</v>
@@ -13049,7 +13049,7 @@
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A185" s="72">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B185" s="21" t="s">
         <v>11</v>
@@ -13101,7 +13101,7 @@
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A186" s="72">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B186" s="21" t="s">
         <v>11</v>
@@ -13153,7 +13153,7 @@
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A187" s="72">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B187" s="21" t="s">
         <v>11</v>
@@ -13205,7 +13205,7 @@
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A188" s="72">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B188" s="21" t="s">
         <v>11</v>
@@ -13257,7 +13257,7 @@
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A189" s="72">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B189" s="21" t="s">
         <v>11</v>
@@ -13309,7 +13309,7 @@
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A190" s="72">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B190" s="21" t="s">
         <v>11</v>
@@ -13359,7 +13359,7 @@
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A191" s="72">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B191" s="21" t="s">
         <v>11</v>
@@ -13411,7 +13411,7 @@
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A192" s="72">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B192" s="21" t="s">
         <v>11</v>
@@ -13463,7 +13463,7 @@
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A193" s="72">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B193" s="21" t="s">
         <v>13</v>

--- a/05_Steamlit/Negtgel_office.xlsx
+++ b/05_Steamlit/Negtgel_office.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Office\05_Steamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4B906F-979A-4040-9349-2960A262472C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4FB705-1167-4748-B5D2-67CC39A4A50D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4470" yWindow="3570" windowWidth="18855" windowHeight="7710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="3" r:id="rId1"/>
@@ -2411,19 +2411,19 @@
     <xf numFmtId="43" fontId="1" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="5" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2435,11 +2435,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2780,8 +2780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:D47"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2798,20 +2798,20 @@
   <sheetData>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="79" t="s">
         <v>427</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="79" t="s">
         <v>428</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -3048,11 +3048,11 @@
       </c>
       <c r="C21" s="85"/>
       <c r="D21" s="54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E21" s="6" t="str">
         <f>IF($D$21=1,"0.95",IF($D$21=$D$20,"0.95",IF($D$21='3'!$L$1,"0.4",IF($D$21='3'!$L$2,"0.5",IF($D$21='3'!$L$3,0.75,IF($D$21='3'!$L$4,0.5,IF($D$21&gt;$D$20,"0","1")))))))</f>
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -3148,7 +3148,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B27" s="88" t="s">
+      <c r="B27" s="82" t="s">
         <v>73</v>
       </c>
       <c r="C27" s="44" t="s">
@@ -3167,7 +3167,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B28" s="88"/>
+      <c r="B28" s="82"/>
       <c r="C28" s="44" t="s">
         <v>75</v>
       </c>
@@ -3184,7 +3184,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B29" s="88"/>
+      <c r="B29" s="82"/>
       <c r="C29" s="44" t="s">
         <v>76</v>
       </c>
@@ -3201,10 +3201,10 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B30" s="80" t="s">
+      <c r="B30" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="81"/>
+      <c r="C30" s="83"/>
       <c r="D30" s="48" t="s">
         <v>50</v>
       </c>
@@ -3218,10 +3218,10 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B31" s="80" t="s">
+      <c r="B31" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="81"/>
+      <c r="C31" s="83"/>
       <c r="D31" s="47" t="s">
         <v>43</v>
       </c>
@@ -3235,10 +3235,10 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B32" s="80" t="s">
+      <c r="B32" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="81"/>
+      <c r="C32" s="83"/>
       <c r="D32" s="48" t="s">
         <v>35</v>
       </c>
@@ -3252,10 +3252,10 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B33" s="80" t="s">
+      <c r="B33" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="81"/>
+      <c r="C33" s="83"/>
       <c r="D33" s="48" t="s">
         <v>35</v>
       </c>
@@ -3285,17 +3285,17 @@
         <f>+A33+1</f>
         <v>25</v>
       </c>
-      <c r="B36" s="79" t="s">
+      <c r="B36" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="80"/>
+      <c r="C36" s="81"/>
       <c r="D36" s="17">
         <f>+E36</f>
-        <v>5000000</v>
+        <v>4750000</v>
       </c>
       <c r="E36" s="41">
         <f>+E9*E10*E21*E22*E23*E27*E28*E29*E25*E26*E24*E30*E31*E32*E33</f>
-        <v>5000000</v>
+        <v>4750000</v>
       </c>
       <c r="F36" s="18"/>
     </row>
@@ -3303,13 +3303,13 @@
       <c r="A37" s="47">
         <v>18</v>
       </c>
-      <c r="B37" s="81" t="s">
+      <c r="B37" s="83" t="s">
         <v>174</v>
       </c>
-      <c r="C37" s="81"/>
+      <c r="C37" s="83"/>
       <c r="D37" s="49">
         <f>IF(D19&lt;2000,IF(D23=2,1,IF(D23=3,1.25,IF(D23=4,1.35,IF(D23=1,0.75,""))))*D36,D22*D36)</f>
-        <v>245000000</v>
+        <v>232750000</v>
       </c>
       <c r="E37" s="15"/>
     </row>
@@ -3318,10 +3318,10 @@
         <f t="shared" ref="A38:A41" si="1">+A37+1</f>
         <v>19</v>
       </c>
-      <c r="B38" s="81" t="s">
+      <c r="B38" s="83" t="s">
         <v>172</v>
       </c>
-      <c r="C38" s="81"/>
+      <c r="C38" s="83"/>
       <c r="D38" s="52">
         <f>+E8</f>
         <v>0.7</v>
@@ -3333,13 +3333,13 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B39" s="81" t="s">
+      <c r="B39" s="83" t="s">
         <v>173</v>
       </c>
-      <c r="C39" s="81"/>
+      <c r="C39" s="83"/>
       <c r="D39" s="49">
         <f>+D37*D38</f>
-        <v>171500000</v>
+        <v>162925000</v>
       </c>
       <c r="E39" s="15"/>
     </row>
@@ -3348,10 +3348,10 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B40" s="79" t="s">
+      <c r="B40" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="80"/>
+      <c r="C40" s="81"/>
       <c r="D40" s="17">
         <v>1</v>
       </c>
@@ -3362,13 +3362,13 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B41" s="82" t="s">
+      <c r="B41" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="83"/>
+      <c r="C41" s="88"/>
       <c r="D41" s="51">
         <f>+D39*D40</f>
-        <v>171500000</v>
+        <v>162925000</v>
       </c>
       <c r="E41" s="50"/>
     </row>
@@ -3390,10 +3390,10 @@
       <c r="A44" s="47">
         <v>21</v>
       </c>
-      <c r="B44" s="79" t="s">
+      <c r="B44" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="80"/>
+      <c r="C44" s="81"/>
       <c r="D44" s="47">
         <v>3000</v>
       </c>
@@ -3404,10 +3404,10 @@
         <f>+A44+1</f>
         <v>22</v>
       </c>
-      <c r="B45" s="79" t="s">
+      <c r="B45" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="80"/>
+      <c r="C45" s="81"/>
       <c r="D45" s="47"/>
       <c r="E45" s="6"/>
     </row>
@@ -3416,10 +3416,10 @@
         <f t="shared" ref="A46:A47" si="2">+A45+1</f>
         <v>23</v>
       </c>
-      <c r="B46" s="79" t="s">
+      <c r="B46" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="80"/>
+      <c r="C46" s="81"/>
       <c r="D46" s="47"/>
       <c r="E46" s="6"/>
     </row>
@@ -3428,10 +3428,10 @@
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="B47" s="79" t="s">
+      <c r="B47" s="80" t="s">
         <v>175</v>
       </c>
-      <c r="C47" s="80"/>
+      <c r="C47" s="81"/>
       <c r="D47" s="59">
         <f ca="1">+TODAY()</f>
         <v>45839</v>
@@ -3460,6 +3460,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B46:C46"/>
@@ -3476,27 +3497,6 @@
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3603,8 +3603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P194"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F18" sqref="D18:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>

--- a/05_Steamlit/Negtgel_office.xlsx
+++ b/05_Steamlit/Negtgel_office.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Office\05_Steamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4FB705-1167-4748-B5D2-67CC39A4A50D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44F5EB2-E600-49A6-9277-897FE2095393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4470" yWindow="3570" windowWidth="18855" windowHeight="7710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="3" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="628">
   <si>
     <t>Барилгын нэр</t>
   </si>
@@ -1332,9 +1332,6 @@
     <t>Сeo office</t>
   </si>
   <si>
-    <t xml:space="preserve">Misheel city </t>
-  </si>
-  <si>
     <t>World mongolia</t>
   </si>
   <si>
@@ -1362,9 +1359,6 @@
     <t>504/1</t>
   </si>
   <si>
-    <t>Чингисийн өргөн ч+H2+J1+J10:U15</t>
-  </si>
-  <si>
     <t>47.916518, 106.914441</t>
   </si>
   <si>
@@ -1945,6 +1939,15 @@
   </si>
   <si>
     <t>Бизнесийн зээл</t>
+  </si>
+  <si>
+    <t>Misheel city M1</t>
+  </si>
+  <si>
+    <t>Misheel city M2</t>
+  </si>
+  <si>
+    <t>Misheel city M3</t>
   </si>
 </sst>
 </file>
@@ -2780,7 +2783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -2799,7 +2802,7 @@
     <row r="2" spans="1:5" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="79" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C2" s="79"/>
       <c r="D2" s="79"/>
@@ -2808,7 +2811,7 @@
     <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="79" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C3" s="79"/>
       <c r="D3" s="79"/>
@@ -2862,7 +2865,7 @@
       </c>
       <c r="C8" s="85"/>
       <c r="D8" s="54" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E8" s="6">
         <f>+VLOOKUP($D$8,'3'!$G$2:$H$7,2,FALSE)</f>
@@ -3434,7 +3437,7 @@
       <c r="C47" s="81"/>
       <c r="D47" s="59">
         <f ca="1">+TODAY()</f>
-        <v>45839</v>
+        <v>45840</v>
       </c>
       <c r="E47" s="6"/>
     </row>
@@ -3603,8 +3606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P194"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F18" sqref="D18:F18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3672,10 +3675,10 @@
         <v>17</v>
       </c>
       <c r="L2" s="71" t="s">
+        <v>424</v>
+      </c>
+      <c r="M2" s="71" t="s">
         <v>425</v>
-      </c>
-      <c r="M2" s="71" t="s">
-        <v>426</v>
       </c>
       <c r="N2" s="68" t="s">
         <v>24</v>
@@ -3684,7 +3687,7 @@
         <v>18</v>
       </c>
       <c r="P2" s="68" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -3719,8 +3722,7 @@
         <v>217</v>
       </c>
       <c r="K3" s="73">
-        <f>+K28</f>
-        <v>12000000</v>
+        <v>13699000</v>
       </c>
       <c r="L3" s="21">
         <v>47.916518000000003</v>
@@ -3737,7 +3739,7 @@
         <v>59</v>
       </c>
       <c r="P3" s="21" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -3766,7 +3768,7 @@
       <c r="I4" s="72"/>
       <c r="J4" s="21"/>
       <c r="K4" s="73">
-        <v>7500000</v>
+        <v>8086400</v>
       </c>
       <c r="L4" s="21">
         <v>47.914834999999997</v>
@@ -3783,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="21" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -3818,7 +3820,7 @@
         <v>8</v>
       </c>
       <c r="K5" s="73">
-        <v>5000000</v>
+        <v>5500000</v>
       </c>
       <c r="L5" s="21">
         <v>47.914915000000001</v>
@@ -3835,7 +3837,7 @@
         <v>6/1</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -3870,7 +3872,7 @@
         <v>8</v>
       </c>
       <c r="K6" s="73">
-        <v>5000000</v>
+        <v>5500000</v>
       </c>
       <c r="L6" s="21">
         <v>47.914979000000002</v>
@@ -3887,7 +3889,7 @@
         <v>6/2</v>
       </c>
       <c r="P6" s="21" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -3922,7 +3924,7 @@
         <v>8</v>
       </c>
       <c r="K7" s="73">
-        <v>5000000</v>
+        <v>5500000</v>
       </c>
       <c r="L7" s="21">
         <v>47.914723000000002</v>
@@ -3939,7 +3941,7 @@
         <v>21</v>
       </c>
       <c r="P7" s="21" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -3991,7 +3993,7 @@
         <v>7</v>
       </c>
       <c r="P8" s="69" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -4026,7 +4028,7 @@
         <v>124</v>
       </c>
       <c r="K9" s="73">
-        <v>7000000</v>
+        <v>8949000</v>
       </c>
       <c r="L9" s="21">
         <v>47.914261000000003</v>
@@ -4043,7 +4045,7 @@
         <v>8</v>
       </c>
       <c r="P9" s="21" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -4075,7 +4077,7 @@
         <v>2017</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>432</v>
+        <v>124</v>
       </c>
       <c r="K10" s="74">
         <v>6000000</v>
@@ -4095,7 +4097,7 @@
         <v>10Б</v>
       </c>
       <c r="P10" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -4128,7 +4130,7 @@
         <v>124</v>
       </c>
       <c r="K11" s="74">
-        <v>6500000</v>
+        <v>7000000</v>
       </c>
       <c r="L11" s="21">
         <v>47.911411000000001</v>
@@ -4145,7 +4147,7 @@
         <v>13</v>
       </c>
       <c r="P11" s="21" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -4176,7 +4178,7 @@
       </c>
       <c r="J12" s="21"/>
       <c r="K12" s="74">
-        <v>6500000</v>
+        <v>7000000</v>
       </c>
       <c r="L12" s="21">
         <v>47.911138999999999</v>
@@ -4193,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="21" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -4227,8 +4229,8 @@
       <c r="J13" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="K13" s="74">
-        <v>6800000</v>
+      <c r="K13" s="73">
+        <v>7201000</v>
       </c>
       <c r="L13" s="21">
         <v>47.910640999999998</v>
@@ -4245,7 +4247,7 @@
         <v>17</v>
       </c>
       <c r="P13" s="21" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -4279,8 +4281,8 @@
       <c r="J14" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="K14" s="74">
-        <v>11700000</v>
+      <c r="K14" s="73">
+        <v>12350000</v>
       </c>
       <c r="L14" s="21">
         <v>47.910159</v>
@@ -4297,7 +4299,7 @@
         <v>24</v>
       </c>
       <c r="P14" s="21" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -4333,7 +4335,7 @@
       </c>
       <c r="K15" s="74">
         <f>+K14</f>
-        <v>11700000</v>
+        <v>12350000</v>
       </c>
       <c r="L15" s="21">
         <v>47.913420000000002</v>
@@ -4350,7 +4352,7 @@
         <v>19</v>
       </c>
       <c r="P15" s="21" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -4402,7 +4404,7 @@
         <v>16</v>
       </c>
       <c r="P16" s="21" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -4454,7 +4456,7 @@
         <v>8/1</v>
       </c>
       <c r="P17" s="21" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -4490,7 +4492,7 @@
       </c>
       <c r="K18" s="74">
         <f>+K15</f>
-        <v>11700000</v>
+        <v>12350000</v>
       </c>
       <c r="L18" s="21">
         <v>47.914293999999998</v>
@@ -4507,7 +4509,7 @@
         <v>15</v>
       </c>
       <c r="P18" s="21" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -4559,7 +4561,7 @@
         <v>17</v>
       </c>
       <c r="P19" s="21" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -4593,7 +4595,7 @@
       </c>
       <c r="K20" s="74">
         <f>+K28</f>
-        <v>12000000</v>
+        <v>13699000</v>
       </c>
       <c r="L20" s="21">
         <v>47.916327000000003</v>
@@ -4610,7 +4612,7 @@
         <v>17</v>
       </c>
       <c r="P20" s="21" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -4644,8 +4646,8 @@
       <c r="J21" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="K21" s="74">
-        <v>9642600</v>
+      <c r="K21" s="73">
+        <v>10178300</v>
       </c>
       <c r="L21" s="21">
         <v>47.915685000000003</v>
@@ -4662,7 +4664,7 @@
         <v>18/1</v>
       </c>
       <c r="P21" s="21" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
@@ -4696,8 +4698,8 @@
       <c r="J22" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="K22" s="74">
-        <v>10000000</v>
+      <c r="K22" s="73">
+        <v>10178300</v>
       </c>
       <c r="L22" s="21">
         <v>47.915747000000003</v>
@@ -4714,7 +4716,7 @@
         <v>18/2</v>
       </c>
       <c r="P22" s="21" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
@@ -4746,8 +4748,8 @@
       <c r="J23" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="K23" s="74">
-        <v>10000000</v>
+      <c r="K23" s="73">
+        <v>10178300</v>
       </c>
       <c r="L23" s="21">
         <v>47.915731999999998</v>
@@ -4764,7 +4766,7 @@
         <v>22</v>
       </c>
       <c r="P23" s="21" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
@@ -4798,8 +4800,8 @@
       <c r="J24" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="K24" s="74">
-        <v>10000000</v>
+      <c r="K24" s="73">
+        <v>10178300</v>
       </c>
       <c r="L24" s="21">
         <v>47.915970000000002</v>
@@ -4816,7 +4818,7 @@
         <v>20</v>
       </c>
       <c r="P24" s="21" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
@@ -4850,8 +4852,8 @@
       <c r="J25" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="K25" s="74">
-        <v>10800000</v>
+      <c r="K25" s="73">
+        <v>11400000</v>
       </c>
       <c r="L25" s="21">
         <v>47.916041</v>
@@ -4868,7 +4870,7 @@
         <v>5</v>
       </c>
       <c r="P25" s="21" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
@@ -4900,8 +4902,8 @@
       <c r="J26" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="K26" s="74">
-        <v>7500000</v>
+      <c r="K26" s="73">
+        <v>7600000</v>
       </c>
       <c r="L26" s="21">
         <v>47.915408999999997</v>
@@ -4918,7 +4920,7 @@
         <v>13</v>
       </c>
       <c r="P26" s="21" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
@@ -4952,8 +4954,8 @@
       <c r="J27" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="K27" s="74">
-        <v>7500000</v>
+      <c r="K27" s="73">
+        <v>7600000</v>
       </c>
       <c r="L27" s="21">
         <v>47.915095999999998</v>
@@ -4970,7 +4972,7 @@
         <v>7/1</v>
       </c>
       <c r="P27" s="21" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
@@ -5004,8 +5006,8 @@
       <c r="J28" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="K28" s="74">
-        <v>12000000</v>
+      <c r="K28" s="73">
+        <v>13699000</v>
       </c>
       <c r="L28" s="21">
         <v>47.915416</v>
@@ -5022,7 +5024,7 @@
         <v>23</v>
       </c>
       <c r="P28" s="21" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
@@ -5072,7 +5074,7 @@
         <v>19</v>
       </c>
       <c r="P29" s="21" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
@@ -5104,8 +5106,8 @@
       <c r="J30" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="K30" s="74">
-        <v>7500000</v>
+      <c r="K30" s="73">
+        <v>9524700</v>
       </c>
       <c r="L30" s="21">
         <v>47.917380999999999</v>
@@ -5122,7 +5124,7 @@
         <v>13/3</v>
       </c>
       <c r="P30" s="21" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
@@ -5152,8 +5154,8 @@
         <v>2014</v>
       </c>
       <c r="J31" s="21"/>
-      <c r="K31" s="74">
-        <v>7000000</v>
+      <c r="K31" s="73">
+        <v>9524700</v>
       </c>
       <c r="L31" s="21">
         <v>47.917374000000002</v>
@@ -5170,7 +5172,7 @@
         <v>23</v>
       </c>
       <c r="P31" s="21" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
@@ -5222,7 +5224,7 @@
         <v>4</v>
       </c>
       <c r="P32" s="21" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
@@ -5274,7 +5276,7 @@
         <v>6</v>
       </c>
       <c r="P33" s="21" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
@@ -5324,7 +5326,7 @@
         <v>50</v>
       </c>
       <c r="P34" s="21" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
@@ -5374,7 +5376,7 @@
         <v>52</v>
       </c>
       <c r="P35" s="21" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
@@ -5422,7 +5424,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="21" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
@@ -5474,7 +5476,7 @@
         <v>51</v>
       </c>
       <c r="P37" s="21" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
@@ -5526,7 +5528,7 @@
         <v>34</v>
       </c>
       <c r="P38" s="21" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
@@ -5578,7 +5580,7 @@
         <v>15А</v>
       </c>
       <c r="P39" s="21" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
@@ -5628,7 +5630,7 @@
         <v>28</v>
       </c>
       <c r="P40" s="21" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
@@ -5680,7 +5682,7 @@
         <v>31</v>
       </c>
       <c r="P41" s="21" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
@@ -5732,7 +5734,7 @@
         <v>42</v>
       </c>
       <c r="P42" s="21" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
@@ -5784,7 +5786,7 @@
         <v>62</v>
       </c>
       <c r="P43" s="21" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
@@ -5834,7 +5836,7 @@
         <v>46</v>
       </c>
       <c r="P44" s="21" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
@@ -5886,7 +5888,7 @@
         <v/>
       </c>
       <c r="P45" s="21" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
@@ -5938,7 +5940,7 @@
         <v/>
       </c>
       <c r="P46" s="21" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
@@ -5972,8 +5974,8 @@
       <c r="J47" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="75">
-        <v>7761600</v>
+      <c r="K47" s="74">
+        <v>7200000</v>
       </c>
       <c r="L47" s="21">
         <v>47.914099999999998</v>
@@ -5990,7 +5992,7 @@
         <v/>
       </c>
       <c r="P47" s="21" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
@@ -6042,7 +6044,7 @@
         <v/>
       </c>
       <c r="P48" s="21" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
@@ -6094,7 +6096,7 @@
         <v/>
       </c>
       <c r="P49" s="21" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
@@ -6146,7 +6148,7 @@
         <v/>
       </c>
       <c r="P50" s="21" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
@@ -6181,7 +6183,7 @@
         <v>8</v>
       </c>
       <c r="K51" s="75">
-        <v>7497000</v>
+        <v>8000000</v>
       </c>
       <c r="L51" s="21">
         <v>47.912590999999999</v>
@@ -6198,7 +6200,7 @@
         <v/>
       </c>
       <c r="P51" s="21" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
@@ -6250,7 +6252,7 @@
         <v/>
       </c>
       <c r="P52" s="21" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
@@ -6302,7 +6304,7 @@
         <v/>
       </c>
       <c r="P53" s="21" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
@@ -6337,7 +6339,7 @@
         <v>8</v>
       </c>
       <c r="K54" s="74">
-        <v>4500000</v>
+        <v>5500000</v>
       </c>
       <c r="L54" s="21">
         <v>47.912953999999999</v>
@@ -6354,7 +6356,7 @@
         <v/>
       </c>
       <c r="P54" s="21" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
@@ -6389,7 +6391,7 @@
         <v>8</v>
       </c>
       <c r="K55" s="74">
-        <v>4500000</v>
+        <v>5500000</v>
       </c>
       <c r="L55" s="21">
         <v>47.912899000000003</v>
@@ -6406,7 +6408,7 @@
         <v/>
       </c>
       <c r="P55" s="21" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
@@ -6441,7 +6443,7 @@
         <v>8</v>
       </c>
       <c r="K56" s="74">
-        <v>4500000</v>
+        <v>5500000</v>
       </c>
       <c r="L56" s="21">
         <v>47.913370999999998</v>
@@ -6458,7 +6460,7 @@
         <v/>
       </c>
       <c r="P56" s="21" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
@@ -6491,7 +6493,7 @@
         <v>8</v>
       </c>
       <c r="K57" s="74">
-        <v>4500000</v>
+        <v>5500000</v>
       </c>
       <c r="L57" s="21">
         <v>47.913359</v>
@@ -6508,7 +6510,7 @@
         <v/>
       </c>
       <c r="P57" s="21" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
@@ -6543,7 +6545,7 @@
         <v>9</v>
       </c>
       <c r="K58" s="74">
-        <v>4725000</v>
+        <v>5500000</v>
       </c>
       <c r="L58" s="21">
         <v>47.909264</v>
@@ -6560,7 +6562,7 @@
         <v/>
       </c>
       <c r="P58" s="21" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
@@ -6595,7 +6597,7 @@
         <v>126</v>
       </c>
       <c r="K59" s="76">
-        <v>7228800</v>
+        <v>7600000</v>
       </c>
       <c r="L59" s="21">
         <v>47.922485999999999</v>
@@ -6612,7 +6614,7 @@
         <v/>
       </c>
       <c r="P59" s="21" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
@@ -6645,7 +6647,7 @@
         <v>126</v>
       </c>
       <c r="K60" s="76">
-        <v>7228800</v>
+        <v>7600000</v>
       </c>
       <c r="L60" s="21">
         <v>47.922530999999999</v>
@@ -6662,7 +6664,7 @@
         <v/>
       </c>
       <c r="P60" s="21" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
@@ -6697,7 +6699,7 @@
         <v>408</v>
       </c>
       <c r="K61" s="74">
-        <v>8000000</v>
+        <v>9000000</v>
       </c>
       <c r="L61" s="21">
         <v>47.925730000000001</v>
@@ -6714,7 +6716,7 @@
         <v/>
       </c>
       <c r="P61" s="21" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
@@ -6749,7 +6751,7 @@
         <v>266</v>
       </c>
       <c r="K62" s="74">
-        <v>4500000</v>
+        <v>5200000</v>
       </c>
       <c r="L62" s="21">
         <v>47.92736</v>
@@ -6766,7 +6768,7 @@
         <v/>
       </c>
       <c r="P62" s="21" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
@@ -6784,7 +6786,7 @@
       </c>
       <c r="E63" s="21"/>
       <c r="F63" s="21" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G63" s="21" t="s">
         <v>43</v>
@@ -6816,7 +6818,7 @@
         <v/>
       </c>
       <c r="P63" s="21" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
@@ -6851,7 +6853,7 @@
         <v>8</v>
       </c>
       <c r="K64" s="74">
-        <v>7400000</v>
+        <v>8000000</v>
       </c>
       <c r="L64" s="21">
         <v>47.919324000000003</v>
@@ -6868,7 +6870,7 @@
         <v/>
       </c>
       <c r="P64" s="21" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
@@ -6903,7 +6905,7 @@
         <v>8</v>
       </c>
       <c r="K65" s="74">
-        <v>7200000</v>
+        <v>8000000</v>
       </c>
       <c r="L65" s="21">
         <v>47.919058</v>
@@ -6920,7 +6922,7 @@
         <v/>
       </c>
       <c r="P65" s="21" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
@@ -6955,7 +6957,8 @@
         <v>216</v>
       </c>
       <c r="K66" s="74">
-        <v>12000000</v>
+        <f>+K20</f>
+        <v>13699000</v>
       </c>
       <c r="L66" s="21">
         <v>47.918066000000003</v>
@@ -6972,7 +6975,7 @@
         <v/>
       </c>
       <c r="P66" s="21" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
@@ -7022,7 +7025,7 @@
         <v/>
       </c>
       <c r="P67" s="21" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
@@ -7070,7 +7073,7 @@
         <v/>
       </c>
       <c r="P68" s="21" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
@@ -7120,7 +7123,7 @@
         <v/>
       </c>
       <c r="P69" s="21" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
@@ -7166,7 +7169,7 @@
         <v/>
       </c>
       <c r="P70" s="21" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
@@ -7218,7 +7221,7 @@
         <v/>
       </c>
       <c r="P71" s="21" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
@@ -7270,7 +7273,7 @@
         <v/>
       </c>
       <c r="P72" s="21" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
@@ -7320,7 +7323,7 @@
         <v/>
       </c>
       <c r="P73" s="21" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
@@ -7372,7 +7375,7 @@
         <v/>
       </c>
       <c r="P74" s="21" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
@@ -7424,7 +7427,7 @@
         <v/>
       </c>
       <c r="P75" s="21" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
@@ -7476,7 +7479,7 @@
         <v/>
       </c>
       <c r="P76" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
@@ -7528,7 +7531,7 @@
         <v/>
       </c>
       <c r="P77" s="21" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
@@ -7580,7 +7583,7 @@
         <v/>
       </c>
       <c r="P78" s="21" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
@@ -7630,7 +7633,7 @@
         <v/>
       </c>
       <c r="P79" s="70" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
@@ -7682,7 +7685,7 @@
         <v/>
       </c>
       <c r="P80" s="70" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
@@ -7734,7 +7737,7 @@
         <v/>
       </c>
       <c r="P81" s="70" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
@@ -7786,7 +7789,7 @@
         <v/>
       </c>
       <c r="P82" s="70" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
@@ -7836,7 +7839,7 @@
         <v/>
       </c>
       <c r="P83" s="70" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
@@ -7886,7 +7889,7 @@
         <v/>
       </c>
       <c r="P84" s="70" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
@@ -7936,7 +7939,7 @@
         <v/>
       </c>
       <c r="P85" s="70" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
@@ -7988,7 +7991,7 @@
         <v/>
       </c>
       <c r="P86" s="70" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.2">
@@ -8040,7 +8043,7 @@
         <v/>
       </c>
       <c r="P87" s="70" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.2">
@@ -8092,7 +8095,7 @@
         <v/>
       </c>
       <c r="P88" s="70" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.2">
@@ -8144,7 +8147,7 @@
         <v/>
       </c>
       <c r="P89" s="70" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.2">
@@ -8196,7 +8199,7 @@
         <v/>
       </c>
       <c r="P90" s="70" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.2">
@@ -8248,7 +8251,7 @@
         <v/>
       </c>
       <c r="P91" s="70" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.2">
@@ -8294,7 +8297,7 @@
         <v/>
       </c>
       <c r="P92" s="70" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.2">
@@ -8344,7 +8347,7 @@
         <v/>
       </c>
       <c r="P93" s="70" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.2">
@@ -8396,7 +8399,7 @@
         <v/>
       </c>
       <c r="P94" s="70" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
@@ -8448,7 +8451,7 @@
         <v/>
       </c>
       <c r="P95" s="70" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.2">
@@ -8500,7 +8503,7 @@
         <v/>
       </c>
       <c r="P96" s="70" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
@@ -8520,7 +8523,7 @@
         <v>15160</v>
       </c>
       <c r="F97" s="21" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G97" s="21" t="s">
         <v>43</v>
@@ -8552,7 +8555,7 @@
         <v/>
       </c>
       <c r="P97" s="70" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
@@ -8602,7 +8605,7 @@
         <v/>
       </c>
       <c r="P98" s="70" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
@@ -8654,7 +8657,7 @@
         <v/>
       </c>
       <c r="P99" s="70" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
@@ -8706,7 +8709,7 @@
         <v/>
       </c>
       <c r="P100" s="70" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
@@ -8758,7 +8761,7 @@
         <v/>
       </c>
       <c r="P101" s="70" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.2">
@@ -8804,7 +8807,7 @@
         <v/>
       </c>
       <c r="P102" s="70" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.2">
@@ -8856,7 +8859,7 @@
         <v/>
       </c>
       <c r="P103" s="70" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.2">
@@ -8908,7 +8911,7 @@
         <v/>
       </c>
       <c r="P104" s="70" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.2">
@@ -8960,7 +8963,7 @@
         <v/>
       </c>
       <c r="P105" s="70" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
@@ -9012,7 +9015,7 @@
         <v/>
       </c>
       <c r="P106" s="70" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
@@ -9064,7 +9067,7 @@
         <v/>
       </c>
       <c r="P107" s="70" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
@@ -9116,7 +9119,7 @@
         <v/>
       </c>
       <c r="P108" s="70" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.2">
@@ -9168,7 +9171,7 @@
         <v/>
       </c>
       <c r="P109" s="70" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.2">
@@ -9220,7 +9223,7 @@
         <v/>
       </c>
       <c r="P110" s="70" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.2">
@@ -9272,7 +9275,7 @@
         <v/>
       </c>
       <c r="P111" s="70" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.2">
@@ -9324,7 +9327,7 @@
         <v/>
       </c>
       <c r="P112" s="70" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.2">
@@ -9374,7 +9377,7 @@
         <v/>
       </c>
       <c r="P113" s="70" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.2">
@@ -9424,7 +9427,7 @@
         <v/>
       </c>
       <c r="P114" s="70" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.2">
@@ -9476,7 +9479,7 @@
         <v/>
       </c>
       <c r="P115" s="70" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.2">
@@ -9528,7 +9531,7 @@
         <v/>
       </c>
       <c r="P116" s="70" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.2">
@@ -9580,7 +9583,7 @@
         <v/>
       </c>
       <c r="P117" s="70" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.2">
@@ -9632,7 +9635,7 @@
         <v/>
       </c>
       <c r="P118" s="70" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.2">
@@ -9684,7 +9687,7 @@
         <v/>
       </c>
       <c r="P119" s="70" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.2">
@@ -9736,7 +9739,7 @@
         <v/>
       </c>
       <c r="P120" s="70" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.2">
@@ -9788,7 +9791,7 @@
         <v/>
       </c>
       <c r="P121" s="70" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.2">
@@ -9839,7 +9842,7 @@
         <v/>
       </c>
       <c r="P122" s="70" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.2">
@@ -9874,7 +9877,7 @@
         <v>103</v>
       </c>
       <c r="K123" s="75">
-        <v>5718600</v>
+        <v>5500000</v>
       </c>
       <c r="L123" s="21">
         <v>47.923774000000002</v>
@@ -9891,7 +9894,7 @@
         <v/>
       </c>
       <c r="P123" s="70" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.2">
@@ -9943,7 +9946,7 @@
         <v/>
       </c>
       <c r="P124" s="70" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.2">
@@ -9995,7 +9998,7 @@
         <v/>
       </c>
       <c r="P125" s="70" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.2">
@@ -10047,7 +10050,7 @@
         <v/>
       </c>
       <c r="P126" s="70" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.2">
@@ -10099,7 +10102,7 @@
         <v/>
       </c>
       <c r="P127" s="70" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.2">
@@ -10151,7 +10154,7 @@
         <v/>
       </c>
       <c r="P128" s="70" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.2">
@@ -10203,7 +10206,7 @@
         <v/>
       </c>
       <c r="P129" s="70" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.2">
@@ -10253,7 +10256,7 @@
         <v/>
       </c>
       <c r="P130" s="70" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.2">
@@ -10303,7 +10306,7 @@
         <v/>
       </c>
       <c r="P131" s="70" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.2">
@@ -10353,7 +10356,7 @@
         <v/>
       </c>
       <c r="P132" s="70" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.2">
@@ -10405,7 +10408,7 @@
         <v/>
       </c>
       <c r="P133" s="70" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.2">
@@ -10457,7 +10460,7 @@
         <v/>
       </c>
       <c r="P134" s="70" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.2">
@@ -10507,7 +10510,7 @@
         <v/>
       </c>
       <c r="P135" s="70" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.2">
@@ -10559,7 +10562,7 @@
         <v/>
       </c>
       <c r="P136" s="70" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.2">
@@ -10611,7 +10614,7 @@
         <v/>
       </c>
       <c r="P137" s="70" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.2">
@@ -10646,7 +10649,7 @@
         <v>119</v>
       </c>
       <c r="K138" s="74">
-        <v>6000000</v>
+        <v>6300000</v>
       </c>
       <c r="L138" s="21">
         <v>47.904286999999997</v>
@@ -10663,7 +10666,7 @@
         <v/>
       </c>
       <c r="P138" s="70" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.2">
@@ -10715,7 +10718,7 @@
         <v/>
       </c>
       <c r="P139" s="70" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.2">
@@ -10750,7 +10753,7 @@
         <v>118</v>
       </c>
       <c r="K140" s="74">
-        <v>6500000</v>
+        <v>6300000</v>
       </c>
       <c r="L140" s="21">
         <v>47.904525</v>
@@ -10767,7 +10770,7 @@
         <v/>
       </c>
       <c r="P140" s="70" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.2">
@@ -10819,7 +10822,7 @@
         <v/>
       </c>
       <c r="P141" s="70" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.2">
@@ -10869,7 +10872,7 @@
         <v/>
       </c>
       <c r="P142" s="70" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.2">
@@ -10921,7 +10924,7 @@
         <v/>
       </c>
       <c r="P143" s="70" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.2">
@@ -10956,7 +10959,7 @@
         <v>338</v>
       </c>
       <c r="K144" s="74">
-        <v>6500000</v>
+        <v>6700000</v>
       </c>
       <c r="L144" s="21">
         <v>47.912559999999999</v>
@@ -10973,7 +10976,7 @@
         <v/>
       </c>
       <c r="P144" s="70" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.2">
@@ -11008,7 +11011,7 @@
         <v>338</v>
       </c>
       <c r="K145" s="74">
-        <v>6500000</v>
+        <v>6700000</v>
       </c>
       <c r="L145" s="21">
         <v>47.912222</v>
@@ -11025,7 +11028,7 @@
         <v/>
       </c>
       <c r="P145" s="70" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.2">
@@ -11077,7 +11080,7 @@
         <v/>
       </c>
       <c r="P146" s="70" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.2">
@@ -11127,7 +11130,7 @@
         <v/>
       </c>
       <c r="P147" s="70" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.2">
@@ -11175,7 +11178,7 @@
         <v/>
       </c>
       <c r="P148" s="70" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.2">
@@ -11225,7 +11228,7 @@
         <v/>
       </c>
       <c r="P149" s="70" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.2">
@@ -11277,7 +11280,7 @@
         <v/>
       </c>
       <c r="P150" s="70" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.2">
@@ -11329,7 +11332,7 @@
         <v/>
       </c>
       <c r="P151" s="70" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.2">
@@ -11381,7 +11384,7 @@
         <v/>
       </c>
       <c r="P152" s="70" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.2">
@@ -11416,7 +11419,7 @@
         <v>132</v>
       </c>
       <c r="K153" s="74">
-        <v>7500000</v>
+        <v>7800000</v>
       </c>
       <c r="L153" s="21">
         <v>47.887286000000003</v>
@@ -11433,7 +11436,7 @@
         <v/>
       </c>
       <c r="P153" s="70" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.2">
@@ -11486,7 +11489,7 @@
         <v/>
       </c>
       <c r="P154" s="70" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.2">
@@ -11538,7 +11541,7 @@
         <v/>
       </c>
       <c r="P155" s="70" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.2">
@@ -11590,7 +11593,7 @@
         <v/>
       </c>
       <c r="P156" s="70" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.2">
@@ -11642,7 +11645,7 @@
         <v/>
       </c>
       <c r="P157" s="70" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.2">
@@ -11694,7 +11697,7 @@
         <v/>
       </c>
       <c r="P158" s="70" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.2">
@@ -11746,7 +11749,7 @@
         <v/>
       </c>
       <c r="P159" s="70" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.2">
@@ -11798,7 +11801,7 @@
         <v/>
       </c>
       <c r="P160" s="70" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.2">
@@ -11850,7 +11853,7 @@
         <v/>
       </c>
       <c r="P161" s="70" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.2">
@@ -11902,7 +11905,7 @@
         <v/>
       </c>
       <c r="P162" s="70" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.2">
@@ -11954,7 +11957,7 @@
         <v/>
       </c>
       <c r="P163" s="70" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.2">
@@ -11974,7 +11977,7 @@
         <v>17013</v>
       </c>
       <c r="F164" s="21" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G164" s="21" t="s">
         <v>43</v>
@@ -12006,7 +12009,7 @@
         <v/>
       </c>
       <c r="P164" s="70" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.2">
@@ -12058,7 +12061,7 @@
         <v/>
       </c>
       <c r="P165" s="70" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.2">
@@ -12110,7 +12113,7 @@
         <v/>
       </c>
       <c r="P166" s="70" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.2">
@@ -12162,7 +12165,7 @@
         <v/>
       </c>
       <c r="P167" s="70" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.2">
@@ -12182,7 +12185,7 @@
         <v>17013</v>
       </c>
       <c r="F168" s="21" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="G168" s="21" t="s">
         <v>43</v>
@@ -12214,7 +12217,7 @@
         <v/>
       </c>
       <c r="P168" s="70" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.2">
@@ -12266,7 +12269,7 @@
         <v/>
       </c>
       <c r="P169" s="70" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.2">
@@ -12318,7 +12321,7 @@
         <v/>
       </c>
       <c r="P170" s="70" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.2">
@@ -12370,7 +12373,7 @@
         <v/>
       </c>
       <c r="P171" s="70" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.2">
@@ -12422,7 +12425,7 @@
         <v/>
       </c>
       <c r="P172" s="70" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.2">
@@ -12474,7 +12477,7 @@
         <v/>
       </c>
       <c r="P173" s="70" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.2">
@@ -12494,7 +12497,7 @@
         <v>17042</v>
       </c>
       <c r="F174" s="21" t="s">
-        <v>422</v>
+        <v>627</v>
       </c>
       <c r="G174" s="21" t="s">
         <v>43</v>
@@ -12509,8 +12512,7 @@
         <v>124</v>
       </c>
       <c r="K174" s="74">
-        <f>6500000*0.9</f>
-        <v>5850000</v>
+        <v>6000000</v>
       </c>
       <c r="L174" s="21">
         <v>47.894416</v>
@@ -12527,7 +12529,7 @@
         <v/>
       </c>
       <c r="P174" s="70" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.2">
@@ -12547,7 +12549,7 @@
         <v>17042</v>
       </c>
       <c r="F175" s="21" t="s">
-        <v>422</v>
+        <v>626</v>
       </c>
       <c r="G175" s="21" t="s">
         <v>43</v>
@@ -12562,8 +12564,7 @@
         <v>124</v>
       </c>
       <c r="K175" s="74">
-        <f>6500000*0.9</f>
-        <v>5850000</v>
+        <v>6000000</v>
       </c>
       <c r="L175" s="21">
         <v>47.893977</v>
@@ -12580,7 +12581,7 @@
         <v/>
       </c>
       <c r="P175" s="70" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.2">
@@ -12600,7 +12601,7 @@
         <v>17042</v>
       </c>
       <c r="F176" s="21" t="s">
-        <v>422</v>
+        <v>625</v>
       </c>
       <c r="G176" s="21" t="s">
         <v>43</v>
@@ -12615,8 +12616,7 @@
         <v>124</v>
       </c>
       <c r="K176" s="74">
-        <f>6500000*0.9</f>
-        <v>5850000</v>
+        <v>6000000</v>
       </c>
       <c r="L176" s="21">
         <v>47.893380000000001</v>
@@ -12633,7 +12633,7 @@
         <v/>
       </c>
       <c r="P176" s="70" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.2">
@@ -12647,13 +12647,13 @@
         <v>24</v>
       </c>
       <c r="D177" s="24" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E177" s="21">
         <v>17110</v>
       </c>
       <c r="F177" s="21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G177" s="21" t="s">
         <v>43</v>
@@ -12685,7 +12685,7 @@
         <v/>
       </c>
       <c r="P177" s="70" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.2">
@@ -12699,13 +12699,13 @@
         <v>24</v>
       </c>
       <c r="D178" s="24" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E178" s="21">
         <v>17110</v>
       </c>
       <c r="F178" s="21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G178" s="21" t="s">
         <v>43</v>
@@ -12737,7 +12737,7 @@
         <v/>
       </c>
       <c r="P178" s="70" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.2">
@@ -12787,7 +12787,7 @@
         <v/>
       </c>
       <c r="P179" s="70" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.2">
@@ -12839,7 +12839,7 @@
         <v/>
       </c>
       <c r="P180" s="70" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.2">
@@ -12889,7 +12889,7 @@
         <v/>
       </c>
       <c r="P181" s="70" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.2">
@@ -12941,7 +12941,7 @@
         <v/>
       </c>
       <c r="P182" s="70" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.2">
@@ -12959,7 +12959,7 @@
       </c>
       <c r="E183" s="21"/>
       <c r="F183" s="21" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G183" s="21" t="s">
         <v>43</v>
@@ -12991,7 +12991,7 @@
         <v/>
       </c>
       <c r="P183" s="70" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.2">
@@ -13011,7 +13011,7 @@
         <v>16067</v>
       </c>
       <c r="F184" s="21" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G184" s="21" t="s">
         <v>43</v>
@@ -13044,7 +13044,7 @@
         <v/>
       </c>
       <c r="P184" s="70" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.2">
@@ -13096,7 +13096,7 @@
         <v/>
       </c>
       <c r="P185" s="70" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.2">
@@ -13148,7 +13148,7 @@
         <v/>
       </c>
       <c r="P186" s="70" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.2">
@@ -13200,7 +13200,7 @@
         <v/>
       </c>
       <c r="P187" s="70" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.2">
@@ -13252,7 +13252,7 @@
         <v/>
       </c>
       <c r="P188" s="70" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.2">
@@ -13304,7 +13304,7 @@
         <v/>
       </c>
       <c r="P189" s="70" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.2">
@@ -13354,7 +13354,7 @@
         <v/>
       </c>
       <c r="P190" s="70" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.2">
@@ -13406,7 +13406,7 @@
         <v/>
       </c>
       <c r="P191" s="70" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.2">
@@ -13458,7 +13458,7 @@
         <v/>
       </c>
       <c r="P192" s="70" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.2">
@@ -13510,7 +13510,7 @@
         <v/>
       </c>
       <c r="P193" s="70" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.2">
@@ -13655,7 +13655,7 @@
         <v>46</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H2" s="24">
         <v>0.7</v>

--- a/05_Steamlit/Negtgel_office.xlsx
+++ b/05_Steamlit/Negtgel_office.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Office\05_Steamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44F5EB2-E600-49A6-9277-897FE2095393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0116AC-9C99-4609-B371-5F2E25C24455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2414,19 +2414,19 @@
     <xf numFmtId="43" fontId="1" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="5" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2438,11 +2438,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2801,20 +2801,20 @@
   <sheetData>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="87" t="s">
         <v>426</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="87" t="s">
         <v>427</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -3151,7 +3151,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B27" s="82" t="s">
+      <c r="B27" s="88" t="s">
         <v>73</v>
       </c>
       <c r="C27" s="44" t="s">
@@ -3170,7 +3170,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B28" s="82"/>
+      <c r="B28" s="88"/>
       <c r="C28" s="44" t="s">
         <v>75</v>
       </c>
@@ -3187,7 +3187,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B29" s="82"/>
+      <c r="B29" s="88"/>
       <c r="C29" s="44" t="s">
         <v>76</v>
       </c>
@@ -3204,10 +3204,10 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B30" s="81" t="s">
+      <c r="B30" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="83"/>
+      <c r="C30" s="81"/>
       <c r="D30" s="48" t="s">
         <v>50</v>
       </c>
@@ -3221,10 +3221,10 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B31" s="81" t="s">
+      <c r="B31" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="83"/>
+      <c r="C31" s="81"/>
       <c r="D31" s="47" t="s">
         <v>43</v>
       </c>
@@ -3238,10 +3238,10 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B32" s="81" t="s">
+      <c r="B32" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="83"/>
+      <c r="C32" s="81"/>
       <c r="D32" s="48" t="s">
         <v>35</v>
       </c>
@@ -3255,10 +3255,10 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B33" s="81" t="s">
+      <c r="B33" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="83"/>
+      <c r="C33" s="81"/>
       <c r="D33" s="48" t="s">
         <v>35</v>
       </c>
@@ -3288,10 +3288,10 @@
         <f>+A33+1</f>
         <v>25</v>
       </c>
-      <c r="B36" s="80" t="s">
+      <c r="B36" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="81"/>
+      <c r="C36" s="80"/>
       <c r="D36" s="17">
         <f>+E36</f>
         <v>4750000</v>
@@ -3306,10 +3306,10 @@
       <c r="A37" s="47">
         <v>18</v>
       </c>
-      <c r="B37" s="83" t="s">
+      <c r="B37" s="81" t="s">
         <v>174</v>
       </c>
-      <c r="C37" s="83"/>
+      <c r="C37" s="81"/>
       <c r="D37" s="49">
         <f>IF(D19&lt;2000,IF(D23=2,1,IF(D23=3,1.25,IF(D23=4,1.35,IF(D23=1,0.75,""))))*D36,D22*D36)</f>
         <v>232750000</v>
@@ -3321,10 +3321,10 @@
         <f t="shared" ref="A38:A41" si="1">+A37+1</f>
         <v>19</v>
       </c>
-      <c r="B38" s="83" t="s">
+      <c r="B38" s="81" t="s">
         <v>172</v>
       </c>
-      <c r="C38" s="83"/>
+      <c r="C38" s="81"/>
       <c r="D38" s="52">
         <f>+E8</f>
         <v>0.7</v>
@@ -3336,10 +3336,10 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B39" s="83" t="s">
+      <c r="B39" s="81" t="s">
         <v>173</v>
       </c>
-      <c r="C39" s="83"/>
+      <c r="C39" s="81"/>
       <c r="D39" s="49">
         <f>+D37*D38</f>
         <v>162925000</v>
@@ -3351,10 +3351,10 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B40" s="80" t="s">
+      <c r="B40" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="81"/>
+      <c r="C40" s="80"/>
       <c r="D40" s="17">
         <v>1</v>
       </c>
@@ -3365,10 +3365,10 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B41" s="87" t="s">
+      <c r="B41" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="88"/>
+      <c r="C41" s="83"/>
       <c r="D41" s="51">
         <f>+D39*D40</f>
         <v>162925000</v>
@@ -3393,10 +3393,10 @@
       <c r="A44" s="47">
         <v>21</v>
       </c>
-      <c r="B44" s="80" t="s">
+      <c r="B44" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="81"/>
+      <c r="C44" s="80"/>
       <c r="D44" s="47">
         <v>3000</v>
       </c>
@@ -3407,10 +3407,10 @@
         <f>+A44+1</f>
         <v>22</v>
       </c>
-      <c r="B45" s="80" t="s">
+      <c r="B45" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="81"/>
+      <c r="C45" s="80"/>
       <c r="D45" s="47"/>
       <c r="E45" s="6"/>
     </row>
@@ -3419,10 +3419,10 @@
         <f t="shared" ref="A46:A47" si="2">+A45+1</f>
         <v>23</v>
       </c>
-      <c r="B46" s="80" t="s">
+      <c r="B46" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="81"/>
+      <c r="C46" s="80"/>
       <c r="D46" s="47"/>
       <c r="E46" s="6"/>
     </row>
@@ -3431,10 +3431,10 @@
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="B47" s="80" t="s">
+      <c r="B47" s="79" t="s">
         <v>175</v>
       </c>
-      <c r="C47" s="81"/>
+      <c r="C47" s="80"/>
       <c r="D47" s="59">
         <f ca="1">+TODAY()</f>
         <v>45840</v>
@@ -3463,27 +3463,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B46:C46"/>
@@ -3500,6 +3479,27 @@
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3606,8 +3606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="D167" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>

--- a/05_Steamlit/Negtgel_office.xlsx
+++ b/05_Steamlit/Negtgel_office.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Office\05_Steamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0116AC-9C99-4609-B371-5F2E25C24455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711F6C58-AD8F-40FD-B5DB-66F72CF05317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="629">
   <si>
     <t>Барилгын нэр</t>
   </si>
@@ -1948,6 +1948,9 @@
   </si>
   <si>
     <t>Misheel city M3</t>
+  </si>
+  <si>
+    <t>Нэргүй</t>
   </si>
 </sst>
 </file>
@@ -2783,8 +2786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2992,7 +2995,7 @@
       </c>
       <c r="C17" s="85"/>
       <c r="D17" s="54">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="E17" s="6"/>
     </row>
@@ -3007,7 +3010,7 @@
       <c r="C18" s="85"/>
       <c r="D18" s="43" t="str" cm="1">
         <f t="array" ref="D18">INDEX('2'!F:F, MATCH(1, ('2'!B:B=$D$15) * ('2'!C:C=$D$16) * ('2'!D:D=$D$17), 0))</f>
-        <v>DHL tower</v>
+        <v>Mn central office</v>
       </c>
       <c r="E18" s="6"/>
     </row>
@@ -3022,7 +3025,7 @@
       <c r="C19" s="85"/>
       <c r="D19" s="43" cm="1">
         <f t="array" ref="D19">INDEX('2'!I:I, MATCH(1, ('2'!B:B=$D$15) * ('2'!C:C=$D$16) * ('2'!D:D=$D$17), 0))</f>
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="E19" s="6"/>
     </row>
@@ -3037,7 +3040,7 @@
       <c r="C20" s="85"/>
       <c r="D20" s="43" cm="1">
         <f t="array" ref="D20">INDEX('2'!$H:$H, MATCH(1, ('2'!B:B=$D$15) * ('2'!C:C=$D$16) * ('2'!D:D=$D$17), 0))</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E20" s="6"/>
     </row>
@@ -3068,11 +3071,17 @@
       </c>
       <c r="C22" s="85"/>
       <c r="D22" s="57">
-        <v>49</v>
+        <v>401</v>
       </c>
       <c r="E22" s="14">
-        <f>+IF($D$19&gt;2000,IF($D$22&gt;160,0.8,IF($D$22&gt;80,0.9,1)),1)</f>
-        <v>1</v>
+        <f>IF(D22&lt;=200, 1,
+  IF(D22&lt;=300, 0.95,
+    IF(D22&lt;=400, 0.9,
+      0.85
+    )
+  )
+)</f>
+        <v>0.85</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -3089,7 +3098,7 @@
       </c>
       <c r="E23" s="11">
         <f>+SUMIFS('2'!K:K,'2'!$B:$B,'1'!$D$15,'2'!$C:$C,'1'!$D$16,'2'!$D:$D,'1'!$D$17)</f>
-        <v>5000000</v>
+        <v>10500000</v>
       </c>
       <c r="F23" s="11"/>
     </row>
@@ -3165,7 +3174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="7" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="47">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3294,11 +3303,11 @@
       <c r="C36" s="80"/>
       <c r="D36" s="17">
         <f>+E36</f>
-        <v>4750000</v>
+        <v>8478750</v>
       </c>
       <c r="E36" s="41">
         <f>+E9*E10*E21*E22*E23*E27*E28*E29*E25*E26*E24*E30*E31*E32*E33</f>
-        <v>4750000</v>
+        <v>8478750</v>
       </c>
       <c r="F36" s="18"/>
     </row>
@@ -3312,7 +3321,7 @@
       <c r="C37" s="81"/>
       <c r="D37" s="49">
         <f>IF(D19&lt;2000,IF(D23=2,1,IF(D23=3,1.25,IF(D23=4,1.35,IF(D23=1,0.75,""))))*D36,D22*D36)</f>
-        <v>232750000</v>
+        <v>3399978750</v>
       </c>
       <c r="E37" s="15"/>
     </row>
@@ -3342,7 +3351,7 @@
       <c r="C39" s="81"/>
       <c r="D39" s="49">
         <f>+D37*D38</f>
-        <v>162925000</v>
+        <v>2379985125</v>
       </c>
       <c r="E39" s="15"/>
     </row>
@@ -3371,7 +3380,7 @@
       <c r="C41" s="83"/>
       <c r="D41" s="51">
         <f>+D39*D40</f>
-        <v>162925000</v>
+        <v>2379985125</v>
       </c>
       <c r="E41" s="50"/>
     </row>
@@ -3606,8 +3615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D167" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F204" sqref="F204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3616,7 +3625,7 @@
     <col min="2" max="2" width="7.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="5.42578125" style="3" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" style="63" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" style="2" customWidth="1"/>
     <col min="8" max="8" width="10.140625" style="3" customWidth="1"/>
@@ -3752,7 +3761,9 @@
       <c r="C4" s="72">
         <v>1</v>
       </c>
-      <c r="D4" s="24"/>
+      <c r="D4" s="24">
+        <v>0</v>
+      </c>
       <c r="E4" s="21">
         <v>14251</v>
       </c>
@@ -4116,7 +4127,9 @@
       <c r="E11" s="21">
         <v>14251</v>
       </c>
-      <c r="F11" s="21"/>
+      <c r="F11" s="21" t="s">
+        <v>628</v>
+      </c>
       <c r="G11" s="21" t="s">
         <v>43</v>
       </c>
@@ -4160,7 +4173,9 @@
       <c r="C12" s="72">
         <v>1</v>
       </c>
-      <c r="D12" s="24"/>
+      <c r="D12" s="24">
+        <v>0</v>
+      </c>
       <c r="E12" s="21">
         <v>14251</v>
       </c>
@@ -4889,7 +4904,9 @@
       <c r="E26" s="21">
         <v>14240</v>
       </c>
-      <c r="F26" s="21"/>
+      <c r="F26" s="21" t="s">
+        <v>628</v>
+      </c>
       <c r="G26" s="21" t="s">
         <v>43</v>
       </c>
@@ -5389,7 +5406,9 @@
       <c r="C36" s="72">
         <v>1</v>
       </c>
-      <c r="D36" s="24"/>
+      <c r="D36" s="24">
+        <v>0</v>
+      </c>
       <c r="E36" s="21">
         <v>14210</v>
       </c>
@@ -6633,7 +6652,9 @@
       <c r="E60" s="21">
         <v>14201</v>
       </c>
-      <c r="F60" s="21"/>
+      <c r="F60" s="21" t="s">
+        <v>628</v>
+      </c>
       <c r="G60" s="21" t="s">
         <v>43</v>
       </c>
@@ -7038,7 +7059,9 @@
       <c r="C68" s="72">
         <v>8</v>
       </c>
-      <c r="D68" s="24"/>
+      <c r="D68" s="24">
+        <v>0</v>
+      </c>
       <c r="E68" s="21"/>
       <c r="F68" s="21" t="s">
         <v>269</v>
@@ -7140,7 +7163,9 @@
         <v>4</v>
       </c>
       <c r="E70" s="21"/>
-      <c r="F70" s="21"/>
+      <c r="F70" s="21" t="s">
+        <v>628</v>
+      </c>
       <c r="G70" s="21" t="s">
         <v>43</v>
       </c>
@@ -7602,7 +7627,9 @@
       <c r="E79" s="21">
         <v>14192</v>
       </c>
-      <c r="F79" s="21"/>
+      <c r="F79" s="21" t="s">
+        <v>628</v>
+      </c>
       <c r="G79" s="21" t="s">
         <v>43</v>
       </c>
@@ -8264,7 +8291,9 @@
       <c r="C92" s="72">
         <v>11</v>
       </c>
-      <c r="D92" s="24"/>
+      <c r="D92" s="24">
+        <v>0</v>
+      </c>
       <c r="E92" s="21"/>
       <c r="F92" s="21" t="s">
         <v>293</v>
@@ -8316,7 +8345,9 @@
       <c r="E93" s="21">
         <v>14180</v>
       </c>
-      <c r="F93" s="21"/>
+      <c r="F93" s="21" t="s">
+        <v>628</v>
+      </c>
       <c r="G93" s="21" t="s">
         <v>43</v>
       </c>
@@ -8774,7 +8805,9 @@
       <c r="C102" s="72">
         <v>1</v>
       </c>
-      <c r="D102" s="24"/>
+      <c r="D102" s="24">
+        <v>0</v>
+      </c>
       <c r="E102" s="21">
         <v>0</v>
       </c>
@@ -8826,8 +8859,8 @@
       <c r="E103" s="21">
         <v>15170</v>
       </c>
-      <c r="F103" s="21">
-        <v>0</v>
+      <c r="F103" s="21" t="s">
+        <v>628</v>
       </c>
       <c r="G103" s="21" t="s">
         <v>43</v>
@@ -8878,8 +8911,8 @@
       <c r="E104" s="21">
         <v>15170</v>
       </c>
-      <c r="F104" s="21">
-        <v>0</v>
+      <c r="F104" s="21" t="s">
+        <v>628</v>
       </c>
       <c r="G104" s="21" t="s">
         <v>43</v>
@@ -10841,7 +10874,9 @@
       <c r="E142" s="21">
         <v>13292</v>
       </c>
-      <c r="F142" s="21"/>
+      <c r="F142" s="21" t="s">
+        <v>628</v>
+      </c>
       <c r="G142" s="21" t="s">
         <v>43</v>
       </c>

--- a/05_Steamlit/Negtgel_office.xlsx
+++ b/05_Steamlit/Negtgel_office.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Office\05_Steamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711F6C58-AD8F-40FD-B5DB-66F72CF05317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B73DFC-FA33-4A05-BBDD-48EDFADC4980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="629">
   <si>
     <t>Барилгын нэр</t>
   </si>
@@ -2786,8 +2786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2981,7 +2981,7 @@
       </c>
       <c r="C16" s="85"/>
       <c r="D16" s="54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="6"/>
     </row>
@@ -2994,8 +2994,8 @@
         <v>18</v>
       </c>
       <c r="C17" s="85"/>
-      <c r="D17" s="54">
-        <v>16</v>
+      <c r="D17" s="54" t="s">
+        <v>165</v>
       </c>
       <c r="E17" s="6"/>
     </row>
@@ -3010,7 +3010,7 @@
       <c r="C18" s="85"/>
       <c r="D18" s="43" t="str" cm="1">
         <f t="array" ref="D18">INDEX('2'!F:F, MATCH(1, ('2'!B:B=$D$15) * ('2'!C:C=$D$16) * ('2'!D:D=$D$17), 0))</f>
-        <v>Mn central office</v>
+        <v>Twin tower</v>
       </c>
       <c r="E18" s="6"/>
     </row>
@@ -3040,7 +3040,7 @@
       <c r="C20" s="85"/>
       <c r="D20" s="43" cm="1">
         <f t="array" ref="D20">INDEX('2'!$H:$H, MATCH(1, ('2'!B:B=$D$15) * ('2'!C:C=$D$16) * ('2'!D:D=$D$17), 0))</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E20" s="6"/>
     </row>
@@ -3054,11 +3054,11 @@
       </c>
       <c r="C21" s="85"/>
       <c r="D21" s="54">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E21" s="6" t="str">
         <f>IF($D$21=1,"0.95",IF($D$21=$D$20,"0.95",IF($D$21='3'!$L$1,"0.4",IF($D$21='3'!$L$2,"0.5",IF($D$21='3'!$L$3,0.75,IF($D$21='3'!$L$4,0.5,IF($D$21&gt;$D$20,"0","1")))))))</f>
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -3071,7 +3071,7 @@
       </c>
       <c r="C22" s="85"/>
       <c r="D22" s="57">
-        <v>401</v>
+        <v>201</v>
       </c>
       <c r="E22" s="14">
         <f>IF(D22&lt;=200, 1,
@@ -3081,7 +3081,7 @@
     )
   )
 )</f>
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -3098,7 +3098,7 @@
       </c>
       <c r="E23" s="11">
         <f>+SUMIFS('2'!K:K,'2'!$B:$B,'1'!$D$15,'2'!$C:$C,'1'!$D$16,'2'!$D:$D,'1'!$D$17)</f>
-        <v>10500000</v>
+        <v>7200000</v>
       </c>
       <c r="F23" s="11"/>
     </row>
@@ -3303,11 +3303,11 @@
       <c r="C36" s="80"/>
       <c r="D36" s="17">
         <f>+E36</f>
-        <v>8478750</v>
+        <v>6840000</v>
       </c>
       <c r="E36" s="41">
         <f>+E9*E10*E21*E22*E23*E27*E28*E29*E25*E26*E24*E30*E31*E32*E33</f>
-        <v>8478750</v>
+        <v>6840000</v>
       </c>
       <c r="F36" s="18"/>
     </row>
@@ -3321,7 +3321,7 @@
       <c r="C37" s="81"/>
       <c r="D37" s="49">
         <f>IF(D19&lt;2000,IF(D23=2,1,IF(D23=3,1.25,IF(D23=4,1.35,IF(D23=1,0.75,""))))*D36,D22*D36)</f>
-        <v>3399978750</v>
+        <v>1374840000</v>
       </c>
       <c r="E37" s="15"/>
     </row>
@@ -3351,7 +3351,7 @@
       <c r="C39" s="81"/>
       <c r="D39" s="49">
         <f>+D37*D38</f>
-        <v>2379985125</v>
+        <v>962387999.99999988</v>
       </c>
       <c r="E39" s="15"/>
     </row>
@@ -3380,7 +3380,7 @@
       <c r="C41" s="83"/>
       <c r="D41" s="51">
         <f>+D39*D40</f>
-        <v>2379985125</v>
+        <v>962387999.99999988</v>
       </c>
       <c r="E41" s="50"/>
     </row>
@@ -3446,7 +3446,7 @@
       <c r="C47" s="80"/>
       <c r="D47" s="59">
         <f ca="1">+TODAY()</f>
-        <v>45840</v>
+        <v>45841</v>
       </c>
       <c r="E47" s="6"/>
     </row>
@@ -3613,10 +3613,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:P194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F204" sqref="F204"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K178" sqref="K162:K178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3699,7 +3700,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="72">
         <v>1</v>
       </c>
@@ -3741,17 +3742,17 @@
       </c>
       <c r="N3" s="24">
         <f>+IF(O3="",0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="O3" s="24">
+        <v>0</v>
+      </c>
+      <c r="O3" s="24" t="str">
         <f>+IF(B3='1'!$D$15,IF(C3='1'!$D$16, '2'!D3,""),"")</f>
-        <v>59</v>
+        <v/>
       </c>
       <c r="P3" s="21" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="72">
         <v>2</v>
       </c>
@@ -3789,17 +3790,17 @@
       </c>
       <c r="N4" s="24">
         <f>+IF(O4="",0,N3+1)</f>
-        <v>2</v>
-      </c>
-      <c r="O4" s="24">
+        <v>0</v>
+      </c>
+      <c r="O4" s="24" t="str">
         <f>+IF(B4='1'!$D$15,IF(C4='1'!$D$16, '2'!D4,""),"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="P4" s="21" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="72">
         <v>3</v>
       </c>
@@ -3841,17 +3842,17 @@
       </c>
       <c r="N5" s="24">
         <f t="shared" ref="N5:N35" si="0">+IF(O5="",0,N4+1)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O5" s="24" t="str">
         <f>+IF(B5='1'!$D$15,IF(C5='1'!$D$16, '2'!D5,""),"")</f>
-        <v>6/1</v>
+        <v/>
       </c>
       <c r="P5" s="21" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="72">
         <v>4</v>
       </c>
@@ -3893,17 +3894,17 @@
       </c>
       <c r="N6" s="24">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O6" s="24" t="str">
         <f>+IF(B6='1'!$D$15,IF(C6='1'!$D$16, '2'!D6,""),"")</f>
-        <v>6/2</v>
+        <v/>
       </c>
       <c r="P6" s="21" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="72">
         <v>5</v>
       </c>
@@ -3945,17 +3946,17 @@
       </c>
       <c r="N7" s="24">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="O7" s="24">
+        <v>0</v>
+      </c>
+      <c r="O7" s="24" t="str">
         <f>+IF(B7='1'!$D$15,IF(C7='1'!$D$16, '2'!D7,""),"")</f>
-        <v>21</v>
+        <v/>
       </c>
       <c r="P7" s="21" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="72">
         <v>6</v>
       </c>
@@ -3997,17 +3998,17 @@
       </c>
       <c r="N8" s="24">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="O8" s="24">
+        <v>0</v>
+      </c>
+      <c r="O8" s="24" t="str">
         <f>+IF(B8='1'!$D$15,IF(C8='1'!$D$16, '2'!D8,""),"")</f>
-        <v>7</v>
+        <v/>
       </c>
       <c r="P8" s="69" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="72">
         <v>7</v>
       </c>
@@ -4049,17 +4050,17 @@
       </c>
       <c r="N9" s="24">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="O9" s="24">
+        <v>0</v>
+      </c>
+      <c r="O9" s="24" t="str">
         <f>+IF(B9='1'!$D$15,IF(C9='1'!$D$16, '2'!D9,""),"")</f>
-        <v>8</v>
+        <v/>
       </c>
       <c r="P9" s="21" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="72">
         <v>8</v>
       </c>
@@ -4101,17 +4102,17 @@
       </c>
       <c r="N10" s="24">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O10" s="24" t="str">
         <f>+IF(B10='1'!$D$15,IF(C10='1'!$D$16, '2'!D10,""),"")</f>
-        <v>10Б</v>
+        <v/>
       </c>
       <c r="P10" s="21" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="72">
         <v>9</v>
       </c>
@@ -4153,17 +4154,17 @@
       </c>
       <c r="N11" s="24">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="O11" s="24">
+        <v>0</v>
+      </c>
+      <c r="O11" s="24" t="str">
         <f>+IF(B11='1'!$D$15,IF(C11='1'!$D$16, '2'!D11,""),"")</f>
-        <v>13</v>
+        <v/>
       </c>
       <c r="P11" s="21" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="72">
         <v>10</v>
       </c>
@@ -4203,17 +4204,17 @@
       </c>
       <c r="N12" s="24">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="O12" s="24">
+        <v>0</v>
+      </c>
+      <c r="O12" s="24" t="str">
         <f>+IF(B12='1'!$D$15,IF(C12='1'!$D$16, '2'!D12,""),"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="P12" s="21" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="72">
         <v>11</v>
       </c>
@@ -4255,17 +4256,17 @@
       </c>
       <c r="N13" s="24">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="O13" s="24">
+        <v>0</v>
+      </c>
+      <c r="O13" s="24" t="str">
         <f>+IF(B13='1'!$D$15,IF(C13='1'!$D$16, '2'!D13,""),"")</f>
-        <v>17</v>
+        <v/>
       </c>
       <c r="P13" s="21" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="72">
         <v>12</v>
       </c>
@@ -4307,17 +4308,17 @@
       </c>
       <c r="N14" s="24">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="O14" s="24">
+        <v>0</v>
+      </c>
+      <c r="O14" s="24" t="str">
         <f>+IF(B14='1'!$D$15,IF(C14='1'!$D$16, '2'!D14,""),"")</f>
-        <v>24</v>
+        <v/>
       </c>
       <c r="P14" s="21" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="72">
         <v>13</v>
       </c>
@@ -4360,17 +4361,17 @@
       </c>
       <c r="N15" s="24">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="O15" s="24">
+        <v>0</v>
+      </c>
+      <c r="O15" s="24" t="str">
         <f>+IF(B15='1'!$D$15,IF(C15='1'!$D$16, '2'!D15,""),"")</f>
-        <v>19</v>
+        <v/>
       </c>
       <c r="P15" s="21" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="72">
         <v>14</v>
       </c>
@@ -4412,17 +4413,17 @@
       </c>
       <c r="N16" s="24">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="O16" s="24">
+        <v>0</v>
+      </c>
+      <c r="O16" s="24" t="str">
         <f>+IF(B16='1'!$D$15,IF(C16='1'!$D$16, '2'!D16,""),"")</f>
-        <v>16</v>
+        <v/>
       </c>
       <c r="P16" s="21" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="72">
         <v>15</v>
       </c>
@@ -4464,17 +4465,17 @@
       </c>
       <c r="N17" s="24">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O17" s="24" t="str">
         <f>+IF(B17='1'!$D$15,IF(C17='1'!$D$16, '2'!D17,""),"")</f>
-        <v>8/1</v>
+        <v/>
       </c>
       <c r="P17" s="21" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="72">
         <v>16</v>
       </c>
@@ -4517,17 +4518,17 @@
       </c>
       <c r="N18" s="24">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="O18" s="24">
+        <v>0</v>
+      </c>
+      <c r="O18" s="24" t="str">
         <f>+IF(B18='1'!$D$15,IF(C18='1'!$D$16, '2'!D18,""),"")</f>
-        <v>15</v>
+        <v/>
       </c>
       <c r="P18" s="21" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="72">
         <v>17</v>
       </c>
@@ -4569,17 +4570,17 @@
       </c>
       <c r="N19" s="24">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="O19" s="24">
+        <v>0</v>
+      </c>
+      <c r="O19" s="24" t="str">
         <f>+IF(B19='1'!$D$15,IF(C19='1'!$D$16, '2'!D19,""),"")</f>
-        <v>17</v>
+        <v/>
       </c>
       <c r="P19" s="21" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="72">
         <v>18</v>
       </c>
@@ -4620,17 +4621,17 @@
       </c>
       <c r="N20" s="24">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="O20" s="24">
+        <v>0</v>
+      </c>
+      <c r="O20" s="24" t="str">
         <f>+IF(B20='1'!$D$15,IF(C20='1'!$D$16, '2'!D20,""),"")</f>
-        <v>17</v>
+        <v/>
       </c>
       <c r="P20" s="21" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="72">
         <v>19</v>
       </c>
@@ -4672,17 +4673,17 @@
       </c>
       <c r="N21" s="24">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="O21" s="24" t="str">
         <f>+IF(B21='1'!$D$15,IF(C21='1'!$D$16, '2'!D21,""),"")</f>
-        <v>18/1</v>
+        <v/>
       </c>
       <c r="P21" s="21" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="72">
         <v>20</v>
       </c>
@@ -4724,17 +4725,17 @@
       </c>
       <c r="N22" s="24">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O22" s="24" t="str">
         <f>+IF(B22='1'!$D$15,IF(C22='1'!$D$16, '2'!D22,""),"")</f>
-        <v>18/2</v>
+        <v/>
       </c>
       <c r="P22" s="21" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="72">
         <v>21</v>
       </c>
@@ -4774,17 +4775,17 @@
       </c>
       <c r="N23" s="24">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="O23" s="24">
+        <v>0</v>
+      </c>
+      <c r="O23" s="24" t="str">
         <f>+IF(B23='1'!$D$15,IF(C23='1'!$D$16, '2'!D23,""),"")</f>
-        <v>22</v>
+        <v/>
       </c>
       <c r="P23" s="21" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="72">
         <v>22</v>
       </c>
@@ -4826,17 +4827,17 @@
       </c>
       <c r="N24" s="24">
         <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="O24" s="24">
+        <v>0</v>
+      </c>
+      <c r="O24" s="24" t="str">
         <f>+IF(B24='1'!$D$15,IF(C24='1'!$D$16, '2'!D24,""),"")</f>
-        <v>20</v>
+        <v/>
       </c>
       <c r="P24" s="21" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="72">
         <v>23</v>
       </c>
@@ -4878,17 +4879,17 @@
       </c>
       <c r="N25" s="24">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="O25" s="24">
+        <v>0</v>
+      </c>
+      <c r="O25" s="24" t="str">
         <f>+IF(B25='1'!$D$15,IF(C25='1'!$D$16, '2'!D25,""),"")</f>
-        <v>5</v>
+        <v/>
       </c>
       <c r="P25" s="21" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="72">
         <v>24</v>
       </c>
@@ -4930,17 +4931,17 @@
       </c>
       <c r="N26" s="24">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="O26" s="24">
+        <v>0</v>
+      </c>
+      <c r="O26" s="24" t="str">
         <f>+IF(B26='1'!$D$15,IF(C26='1'!$D$16, '2'!D26,""),"")</f>
-        <v>13</v>
+        <v/>
       </c>
       <c r="P26" s="21" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="72">
         <v>25</v>
       </c>
@@ -4982,17 +4983,17 @@
       </c>
       <c r="N27" s="24">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="O27" s="24" t="str">
         <f>+IF(B27='1'!$D$15,IF(C27='1'!$D$16, '2'!D27,""),"")</f>
-        <v>7/1</v>
+        <v/>
       </c>
       <c r="P27" s="21" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="72">
         <v>26</v>
       </c>
@@ -5034,17 +5035,17 @@
       </c>
       <c r="N28" s="24">
         <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="O28" s="24">
+        <v>0</v>
+      </c>
+      <c r="O28" s="24" t="str">
         <f>+IF(B28='1'!$D$15,IF(C28='1'!$D$16, '2'!D28,""),"")</f>
-        <v>23</v>
+        <v/>
       </c>
       <c r="P28" s="21" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="72">
         <v>27</v>
       </c>
@@ -5084,17 +5085,17 @@
       </c>
       <c r="N29" s="24">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="O29" s="24">
+        <v>0</v>
+      </c>
+      <c r="O29" s="24" t="str">
         <f>+IF(B29='1'!$D$15,IF(C29='1'!$D$16, '2'!D29,""),"")</f>
-        <v>19</v>
+        <v/>
       </c>
       <c r="P29" s="21" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="72">
         <v>28</v>
       </c>
@@ -5134,17 +5135,17 @@
       </c>
       <c r="N30" s="24">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="O30" s="24" t="str">
         <f>+IF(B30='1'!$D$15,IF(C30='1'!$D$16, '2'!D30,""),"")</f>
-        <v>13/3</v>
+        <v/>
       </c>
       <c r="P30" s="21" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="72">
         <v>29</v>
       </c>
@@ -5182,17 +5183,17 @@
       </c>
       <c r="N31" s="24">
         <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="O31" s="24">
+        <v>0</v>
+      </c>
+      <c r="O31" s="24" t="str">
         <f>+IF(B31='1'!$D$15,IF(C31='1'!$D$16, '2'!D31,""),"")</f>
-        <v>23</v>
+        <v/>
       </c>
       <c r="P31" s="21" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="72">
         <v>30</v>
       </c>
@@ -5234,17 +5235,17 @@
       </c>
       <c r="N32" s="24">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="O32" s="24">
+        <v>0</v>
+      </c>
+      <c r="O32" s="24" t="str">
         <f>+IF(B32='1'!$D$15,IF(C32='1'!$D$16, '2'!D32,""),"")</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="P32" s="21" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="72">
         <v>31</v>
       </c>
@@ -5286,17 +5287,17 @@
       </c>
       <c r="N33" s="24">
         <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="O33" s="24">
+        <v>0</v>
+      </c>
+      <c r="O33" s="24" t="str">
         <f>+IF(B33='1'!$D$15,IF(C33='1'!$D$16, '2'!D33,""),"")</f>
-        <v>6</v>
+        <v/>
       </c>
       <c r="P33" s="21" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="72">
         <v>32</v>
       </c>
@@ -5336,17 +5337,17 @@
       </c>
       <c r="N34" s="24">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="O34" s="24">
+        <v>0</v>
+      </c>
+      <c r="O34" s="24" t="str">
         <f>+IF(B34='1'!$D$15,IF(C34='1'!$D$16, '2'!D34,""),"")</f>
-        <v>50</v>
+        <v/>
       </c>
       <c r="P34" s="21" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="72">
         <v>33</v>
       </c>
@@ -5386,17 +5387,17 @@
       </c>
       <c r="N35" s="24">
         <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="O35" s="24">
+        <v>0</v>
+      </c>
+      <c r="O35" s="24" t="str">
         <f>+IF(B35='1'!$D$15,IF(C35='1'!$D$16, '2'!D35,""),"")</f>
-        <v>52</v>
+        <v/>
       </c>
       <c r="P35" s="21" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="72">
         <v>34</v>
       </c>
@@ -5436,17 +5437,17 @@
       </c>
       <c r="N36" s="24">
         <f t="shared" ref="N36:N67" si="1">+IF(O36="",0,N35+1)</f>
-        <v>34</v>
-      </c>
-      <c r="O36" s="24">
+        <v>0</v>
+      </c>
+      <c r="O36" s="24" t="str">
         <f>+IF(B36='1'!$D$15,IF(C36='1'!$D$16, '2'!D36,""),"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="P36" s="21" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="72">
         <v>35</v>
       </c>
@@ -5488,17 +5489,17 @@
       </c>
       <c r="N37" s="24">
         <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="O37" s="24">
+        <v>0</v>
+      </c>
+      <c r="O37" s="24" t="str">
         <f>+IF(B37='1'!$D$15,IF(C37='1'!$D$16, '2'!D37,""),"")</f>
-        <v>51</v>
+        <v/>
       </c>
       <c r="P37" s="21" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="72">
         <v>36</v>
       </c>
@@ -5540,17 +5541,17 @@
       </c>
       <c r="N38" s="24">
         <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="O38" s="24">
+        <v>0</v>
+      </c>
+      <c r="O38" s="24" t="str">
         <f>+IF(B38='1'!$D$15,IF(C38='1'!$D$16, '2'!D38,""),"")</f>
-        <v>34</v>
+        <v/>
       </c>
       <c r="P38" s="21" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="72">
         <v>37</v>
       </c>
@@ -5592,17 +5593,17 @@
       </c>
       <c r="N39" s="24">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="O39" s="24" t="str">
         <f>+IF(B39='1'!$D$15,IF(C39='1'!$D$16, '2'!D39,""),"")</f>
-        <v>15А</v>
+        <v/>
       </c>
       <c r="P39" s="21" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="72">
         <v>38</v>
       </c>
@@ -5642,17 +5643,17 @@
       </c>
       <c r="N40" s="24">
         <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="O40" s="24">
+        <v>0</v>
+      </c>
+      <c r="O40" s="24" t="str">
         <f>+IF(B40='1'!$D$15,IF(C40='1'!$D$16, '2'!D40,""),"")</f>
-        <v>28</v>
+        <v/>
       </c>
       <c r="P40" s="21" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="72">
         <v>39</v>
       </c>
@@ -5694,17 +5695,17 @@
       </c>
       <c r="N41" s="24">
         <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="O41" s="24">
+        <v>0</v>
+      </c>
+      <c r="O41" s="24" t="str">
         <f>+IF(B41='1'!$D$15,IF(C41='1'!$D$16, '2'!D41,""),"")</f>
-        <v>31</v>
+        <v/>
       </c>
       <c r="P41" s="21" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="72">
         <v>40</v>
       </c>
@@ -5746,17 +5747,17 @@
       </c>
       <c r="N42" s="24">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="O42" s="24">
+        <v>0</v>
+      </c>
+      <c r="O42" s="24" t="str">
         <f>+IF(B42='1'!$D$15,IF(C42='1'!$D$16, '2'!D42,""),"")</f>
-        <v>42</v>
+        <v/>
       </c>
       <c r="P42" s="21" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="72">
         <v>41</v>
       </c>
@@ -5798,17 +5799,17 @@
       </c>
       <c r="N43" s="24">
         <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="O43" s="24">
+        <v>0</v>
+      </c>
+      <c r="O43" s="24" t="str">
         <f>+IF(B43='1'!$D$15,IF(C43='1'!$D$16, '2'!D43,""),"")</f>
-        <v>62</v>
+        <v/>
       </c>
       <c r="P43" s="21" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="72">
         <v>42</v>
       </c>
@@ -5848,17 +5849,17 @@
       </c>
       <c r="N44" s="24">
         <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="O44" s="24">
+        <v>0</v>
+      </c>
+      <c r="O44" s="24" t="str">
         <f>+IF(B44='1'!$D$15,IF(C44='1'!$D$16, '2'!D44,""),"")</f>
-        <v>46</v>
+        <v/>
       </c>
       <c r="P44" s="21" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="72">
         <v>43</v>
       </c>
@@ -5900,17 +5901,17 @@
       </c>
       <c r="N45" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45" s="24" t="str">
         <f>+IF(B45='1'!$D$15,IF(C45='1'!$D$16, '2'!D45,""),"")</f>
-        <v/>
+        <v>10/1</v>
       </c>
       <c r="P45" s="21" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="72">
         <v>44</v>
       </c>
@@ -5952,17 +5953,17 @@
       </c>
       <c r="N46" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O46" s="24" t="str">
         <f>+IF(B46='1'!$D$15,IF(C46='1'!$D$16, '2'!D46,""),"")</f>
-        <v/>
+        <v>10/2</v>
       </c>
       <c r="P46" s="21" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="72">
         <v>45</v>
       </c>
@@ -6004,17 +6005,17 @@
       </c>
       <c r="N47" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O47" s="24" t="str">
         <f>+IF(B47='1'!$D$15,IF(C47='1'!$D$16, '2'!D47,""),"")</f>
-        <v/>
+        <v>11/1</v>
       </c>
       <c r="P47" s="21" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="72">
         <v>46</v>
       </c>
@@ -6056,17 +6057,17 @@
       </c>
       <c r="N48" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O48" s="24" t="str">
+        <v>4</v>
+      </c>
+      <c r="O48" s="24">
         <f>+IF(B48='1'!$D$15,IF(C48='1'!$D$16, '2'!D48,""),"")</f>
-        <v/>
+        <v>21</v>
       </c>
       <c r="P48" s="21" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="72">
         <v>47</v>
       </c>
@@ -6108,17 +6109,17 @@
       </c>
       <c r="N49" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O49" s="24" t="str">
         <f>+IF(B49='1'!$D$15,IF(C49='1'!$D$16, '2'!D49,""),"")</f>
-        <v/>
+        <v>21/1</v>
       </c>
       <c r="P49" s="21" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="72">
         <v>48</v>
       </c>
@@ -6160,17 +6161,17 @@
       </c>
       <c r="N50" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O50" s="24" t="str">
         <f>+IF(B50='1'!$D$15,IF(C50='1'!$D$16, '2'!D50,""),"")</f>
-        <v/>
+        <v>21/2</v>
       </c>
       <c r="P50" s="21" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="72">
         <v>49</v>
       </c>
@@ -6222,7 +6223,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="72">
         <v>50</v>
       </c>
@@ -6274,7 +6275,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="72">
         <v>51</v>
       </c>
@@ -6326,7 +6327,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="72">
         <v>52</v>
       </c>
@@ -6378,7 +6379,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="72">
         <v>53</v>
       </c>
@@ -6430,7 +6431,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="72">
         <v>54</v>
       </c>
@@ -6482,7 +6483,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="72">
         <v>55</v>
       </c>
@@ -6532,7 +6533,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="72">
         <v>56</v>
       </c>
@@ -6584,7 +6585,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="72">
         <v>57</v>
       </c>
@@ -6636,7 +6637,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="72">
         <v>58</v>
       </c>
@@ -6688,7 +6689,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="72">
         <v>59</v>
       </c>
@@ -6740,7 +6741,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="72">
         <v>60</v>
       </c>
@@ -6792,7 +6793,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="72">
         <v>61</v>
       </c>
@@ -6842,7 +6843,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="72">
         <v>62</v>
       </c>
@@ -6894,7 +6895,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="72">
         <v>63</v>
       </c>
@@ -6946,7 +6947,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="72">
         <v>64</v>
       </c>
@@ -6999,7 +7000,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="72">
         <v>65</v>
       </c>
@@ -7049,7 +7050,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="72">
         <v>66</v>
       </c>
@@ -7099,7 +7100,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="72">
         <v>67</v>
       </c>
@@ -7149,7 +7150,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="72">
         <v>68</v>
       </c>
@@ -7197,7 +7198,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="72">
         <v>69</v>
       </c>
@@ -7249,7 +7250,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="72">
         <v>70</v>
       </c>
@@ -7301,7 +7302,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="72">
         <v>71</v>
       </c>
@@ -7351,7 +7352,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="72">
         <v>72</v>
       </c>
@@ -7403,7 +7404,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="72">
         <v>73</v>
       </c>
@@ -7455,7 +7456,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="72">
         <v>74</v>
       </c>
@@ -7507,7 +7508,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="72">
         <v>75</v>
       </c>
@@ -7559,7 +7560,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="72">
         <v>76</v>
       </c>
@@ -7611,7 +7612,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="72">
         <v>77</v>
       </c>
@@ -7663,7 +7664,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="72">
         <v>78</v>
       </c>
@@ -7715,7 +7716,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="72">
         <v>79</v>
       </c>
@@ -7767,7 +7768,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="72">
         <v>80</v>
       </c>
@@ -7819,7 +7820,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="72">
         <v>81</v>
       </c>
@@ -7869,7 +7870,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="72">
         <v>82</v>
       </c>
@@ -7919,7 +7920,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="72">
         <v>83</v>
       </c>
@@ -7969,7 +7970,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="72">
         <v>84</v>
       </c>
@@ -8021,7 +8022,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="72">
         <v>85</v>
       </c>
@@ -8073,7 +8074,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="72">
         <v>86</v>
       </c>
@@ -8125,7 +8126,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="72">
         <v>87</v>
       </c>
@@ -8177,7 +8178,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="72">
         <v>88</v>
       </c>
@@ -8229,7 +8230,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="72">
         <v>89</v>
       </c>
@@ -8281,7 +8282,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="72">
         <v>90</v>
       </c>
@@ -8329,7 +8330,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="72">
         <v>91</v>
       </c>
@@ -8381,7 +8382,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="72">
         <v>92</v>
       </c>
@@ -8433,7 +8434,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="72">
         <v>93</v>
       </c>
@@ -8485,7 +8486,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="72">
         <v>94</v>
       </c>
@@ -8537,7 +8538,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="72">
         <v>95</v>
       </c>
@@ -8589,7 +8590,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="72">
         <v>96</v>
       </c>
@@ -8639,7 +8640,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="72">
         <v>97</v>
       </c>
@@ -8691,7 +8692,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="72">
         <v>98</v>
       </c>
@@ -8743,7 +8744,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="72">
         <v>99</v>
       </c>
@@ -8795,7 +8796,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="72">
         <v>100</v>
       </c>
@@ -8843,7 +8844,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="72">
         <v>101</v>
       </c>
@@ -8895,7 +8896,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="72">
         <v>102</v>
       </c>
@@ -8947,7 +8948,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="72">
         <v>103</v>
       </c>
@@ -8999,7 +9000,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="72">
         <v>104</v>
       </c>
@@ -9051,7 +9052,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="72">
         <v>105</v>
       </c>
@@ -9103,7 +9104,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="72">
         <v>106</v>
       </c>
@@ -9155,7 +9156,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="72">
         <v>107</v>
       </c>
@@ -9207,7 +9208,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="72">
         <v>108</v>
       </c>
@@ -9259,7 +9260,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="72">
         <v>109</v>
       </c>
@@ -9311,7 +9312,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="72">
         <v>110</v>
       </c>
@@ -9363,7 +9364,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="72">
         <v>111</v>
       </c>
@@ -9413,7 +9414,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="72">
         <v>112</v>
       </c>
@@ -9463,7 +9464,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="72">
         <v>113</v>
       </c>
@@ -9515,7 +9516,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="72">
         <v>114</v>
       </c>
@@ -9567,7 +9568,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="72">
         <v>115</v>
       </c>
@@ -9619,7 +9620,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="72">
         <v>116</v>
       </c>
@@ -9671,7 +9672,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="72">
         <v>117</v>
       </c>
@@ -9723,7 +9724,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="72">
         <v>118</v>
       </c>
@@ -9775,7 +9776,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="72">
         <v>119</v>
       </c>
@@ -9827,7 +9828,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="72">
         <v>120</v>
       </c>
@@ -9878,7 +9879,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="72">
         <v>121</v>
       </c>
@@ -9930,7 +9931,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="72">
         <v>122</v>
       </c>
@@ -9962,7 +9963,7 @@
         <v>106</v>
       </c>
       <c r="K124" s="73">
-        <v>5718600</v>
+        <v>3500000</v>
       </c>
       <c r="L124" s="21">
         <v>47.927388000000001</v>
@@ -9982,7 +9983,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="72">
         <v>123</v>
       </c>
@@ -10014,7 +10015,7 @@
         <v>107</v>
       </c>
       <c r="K125" s="73">
-        <v>5455800</v>
+        <v>3800000</v>
       </c>
       <c r="L125" s="21">
         <v>47.925387999999998</v>
@@ -10034,7 +10035,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="72">
         <v>124</v>
       </c>
@@ -10066,7 +10067,7 @@
         <v>107</v>
       </c>
       <c r="K126" s="73">
-        <v>5455800</v>
+        <v>3800000</v>
       </c>
       <c r="L126" s="21">
         <v>47.924867999999996</v>
@@ -10086,7 +10087,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="72">
         <v>125</v>
       </c>
@@ -10118,7 +10119,7 @@
         <v>106</v>
       </c>
       <c r="K127" s="73">
-        <v>5455800</v>
+        <v>3500000</v>
       </c>
       <c r="L127" s="21">
         <v>47.928344000000003</v>
@@ -10138,7 +10139,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="72">
         <v>126</v>
       </c>
@@ -10170,7 +10171,7 @@
         <v>107</v>
       </c>
       <c r="K128" s="73">
-        <v>5972400</v>
+        <v>5950000</v>
       </c>
       <c r="L128" s="21">
         <v>47.919491999999998</v>
@@ -10190,7 +10191,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="72">
         <v>127</v>
       </c>
@@ -10222,7 +10223,7 @@
         <v>107</v>
       </c>
       <c r="K129" s="73">
-        <v>5972400</v>
+        <v>5500000</v>
       </c>
       <c r="L129" s="21">
         <v>47.920608999999999</v>
@@ -10242,7 +10243,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="72">
         <v>128</v>
       </c>
@@ -10292,7 +10293,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="72">
         <v>129</v>
       </c>
@@ -10322,7 +10323,7 @@
         <v>217</v>
       </c>
       <c r="K131" s="73">
-        <v>5900400</v>
+        <v>3500000</v>
       </c>
       <c r="L131" s="21">
         <v>47.918737999999998</v>
@@ -10342,7 +10343,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="72">
         <v>130</v>
       </c>
@@ -10392,7 +10393,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="72">
         <v>131</v>
       </c>
@@ -10424,7 +10425,7 @@
         <v>103</v>
       </c>
       <c r="K133" s="73">
-        <v>5418000</v>
+        <v>5500000</v>
       </c>
       <c r="L133" s="21">
         <v>47.923789999999997</v>
@@ -10444,7 +10445,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="72">
         <v>132</v>
       </c>
@@ -10476,7 +10477,7 @@
         <v>217</v>
       </c>
       <c r="K134" s="73">
-        <v>5972400</v>
+        <v>5500000</v>
       </c>
       <c r="L134" s="21">
         <v>47.918266000000003</v>
@@ -10496,7 +10497,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="72">
         <v>133</v>
       </c>
@@ -10526,7 +10527,7 @@
         <v>217</v>
       </c>
       <c r="K135" s="73">
-        <v>6325200</v>
+        <v>6000000</v>
       </c>
       <c r="L135" s="21">
         <v>47.918424999999999</v>
@@ -10546,7 +10547,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="72">
         <v>134</v>
       </c>
@@ -10578,7 +10579,7 @@
         <v>338</v>
       </c>
       <c r="K136" s="73">
-        <v>6116400</v>
+        <v>6000000</v>
       </c>
       <c r="L136" s="21">
         <v>47.912868000000003</v>
@@ -10598,7 +10599,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="72">
         <v>135</v>
       </c>
@@ -10630,7 +10631,7 @@
         <v>117</v>
       </c>
       <c r="K137" s="73">
-        <v>6055200</v>
+        <v>7000000</v>
       </c>
       <c r="L137" s="21">
         <v>47.904043000000001</v>
@@ -10650,7 +10651,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="72">
         <v>136</v>
       </c>
@@ -10702,7 +10703,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="72">
         <v>137</v>
       </c>
@@ -10754,7 +10755,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="72">
         <v>138</v>
       </c>
@@ -10806,7 +10807,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="72">
         <v>139</v>
       </c>
@@ -10858,7 +10859,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="72">
         <v>140</v>
       </c>
@@ -10910,7 +10911,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="72">
         <v>141</v>
       </c>
@@ -10962,7 +10963,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="72">
         <v>142</v>
       </c>
@@ -11014,7 +11015,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="72">
         <v>143</v>
       </c>
@@ -12775,7 +12776,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="72">
         <v>177</v>
       </c>
@@ -12825,7 +12826,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="72">
         <v>178</v>
       </c>
@@ -12857,7 +12858,7 @@
         <v>87</v>
       </c>
       <c r="K180" s="74">
-        <v>8500000</v>
+        <v>7500000</v>
       </c>
       <c r="L180" s="21">
         <v>47.914650999999999</v>
@@ -12877,7 +12878,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="72">
         <v>179</v>
       </c>
@@ -12927,7 +12928,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="72">
         <v>180</v>
       </c>
@@ -12979,7 +12980,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="72">
         <v>181</v>
       </c>
@@ -13009,7 +13010,7 @@
         <v>382</v>
       </c>
       <c r="K183" s="74">
-        <v>3870000</v>
+        <v>4000000</v>
       </c>
       <c r="L183" s="21">
         <v>47.918922999999999</v>
@@ -13029,7 +13030,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="72">
         <v>182</v>
       </c>
@@ -13062,7 +13063,7 @@
       </c>
       <c r="K184" s="74">
         <f>+K183</f>
-        <v>3870000</v>
+        <v>4000000</v>
       </c>
       <c r="L184" s="21">
         <v>47.918568</v>
@@ -13082,7 +13083,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="72">
         <v>183</v>
       </c>
@@ -13134,7 +13135,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="72">
         <v>184</v>
       </c>
@@ -13186,7 +13187,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="72">
         <v>185</v>
       </c>
@@ -13238,7 +13239,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="72">
         <v>186</v>
       </c>
@@ -13290,7 +13291,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="72">
         <v>187</v>
       </c>
@@ -13342,7 +13343,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="72">
         <v>188</v>
       </c>
@@ -13392,7 +13393,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="72">
         <v>189</v>
       </c>
@@ -13424,7 +13425,7 @@
         <v>89</v>
       </c>
       <c r="K191" s="74">
-        <v>4000000</v>
+        <v>3800000</v>
       </c>
       <c r="L191" s="21">
         <v>47.911262000000001</v>
@@ -13444,7 +13445,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="72">
         <v>190</v>
       </c>
@@ -13476,7 +13477,7 @@
         <v>89</v>
       </c>
       <c r="K192" s="74">
-        <v>4000000</v>
+        <v>3800000</v>
       </c>
       <c r="L192" s="21">
         <v>47.911434999999997</v>
@@ -13496,7 +13497,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="72">
         <v>191</v>
       </c>
@@ -13553,6 +13554,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:K193" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="ХУД"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M3">
       <sortCondition ref="A2"/>
     </sortState>
@@ -13683,11 +13689,11 @@
       </c>
       <c r="E2" s="24">
         <f>+LARGE('2'!N:N,D2)</f>
-        <v>42</v>
-      </c>
-      <c r="F2" s="24">
+        <v>6</v>
+      </c>
+      <c r="F2" s="24" t="str">
         <f>+VLOOKUP(E2,'2'!N:O,2,FALSE)</f>
-        <v>46</v>
+        <v>21/2</v>
       </c>
       <c r="G2" s="31" t="s">
         <v>624</v>
@@ -13776,11 +13782,11 @@
       </c>
       <c r="E3" s="24">
         <f>+LARGE('2'!N:N,D3)</f>
-        <v>41</v>
-      </c>
-      <c r="F3" s="24">
+        <v>5</v>
+      </c>
+      <c r="F3" s="24" t="str">
         <f>+VLOOKUP(E3,'2'!N:O,2,FALSE)</f>
-        <v>62</v>
+        <v>21/1</v>
       </c>
       <c r="G3" s="31" t="s">
         <v>168</v>
@@ -13870,11 +13876,11 @@
       </c>
       <c r="E4" s="24">
         <f>+LARGE('2'!N:N,D4)</f>
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="F4" s="24">
         <f>+VLOOKUP(E4,'2'!N:O,2,FALSE)</f>
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="G4" s="31" t="s">
         <v>169</v>
@@ -13939,11 +13945,11 @@
       </c>
       <c r="E5" s="24">
         <f>+LARGE('2'!N:N,D5)</f>
-        <v>39</v>
-      </c>
-      <c r="F5" s="24">
+        <v>3</v>
+      </c>
+      <c r="F5" s="24" t="str">
         <f>+VLOOKUP(E5,'2'!N:O,2,FALSE)</f>
-        <v>31</v>
+        <v>11/1</v>
       </c>
       <c r="G5" s="31" t="s">
         <v>169</v>
@@ -14002,11 +14008,11 @@
       </c>
       <c r="E6" s="24">
         <f>+LARGE('2'!N:N,D6)</f>
-        <v>38</v>
-      </c>
-      <c r="F6" s="24">
+        <v>2</v>
+      </c>
+      <c r="F6" s="24" t="str">
         <f>+VLOOKUP(E6,'2'!N:O,2,FALSE)</f>
-        <v>28</v>
+        <v>10/2</v>
       </c>
       <c r="G6" s="31" t="s">
         <v>171</v>
@@ -14064,11 +14070,11 @@
       </c>
       <c r="E7" s="24">
         <f>+LARGE('2'!N:N,D7)</f>
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="F7" s="24" t="str">
         <f>+VLOOKUP(E7,'2'!N:O,2,FALSE)</f>
-        <v>15А</v>
+        <v>10/1</v>
       </c>
       <c r="G7" s="31" t="s">
         <v>170</v>
@@ -14119,11 +14125,11 @@
       </c>
       <c r="E8" s="24">
         <f>+LARGE('2'!N:N,D8)</f>
-        <v>36</v>
-      </c>
-      <c r="F8" s="24">
+        <v>0</v>
+      </c>
+      <c r="F8" s="24" t="str">
         <f>+VLOOKUP(E8,'2'!N:O,2,FALSE)</f>
-        <v>34</v>
+        <v/>
       </c>
       <c r="G8" s="31"/>
       <c r="K8" s="9">
@@ -14165,11 +14171,11 @@
       </c>
       <c r="E9" s="24">
         <f>+LARGE('2'!N:N,D9)</f>
-        <v>35</v>
-      </c>
-      <c r="F9" s="24">
+        <v>0</v>
+      </c>
+      <c r="F9" s="24" t="str">
         <f>+VLOOKUP(E9,'2'!N:O,2,FALSE)</f>
-        <v>51</v>
+        <v/>
       </c>
       <c r="G9" s="31"/>
       <c r="K9" s="9">
@@ -14209,11 +14215,11 @@
       </c>
       <c r="E10" s="24">
         <f>+LARGE('2'!N:N,D10)</f>
-        <v>34</v>
-      </c>
-      <c r="F10" s="24">
+        <v>0</v>
+      </c>
+      <c r="F10" s="24" t="str">
         <f>+VLOOKUP(E10,'2'!N:O,2,FALSE)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="G10" s="31"/>
       <c r="K10" s="9">
@@ -14253,11 +14259,11 @@
       </c>
       <c r="E11" s="24">
         <f>+LARGE('2'!N:N,D11)</f>
-        <v>33</v>
-      </c>
-      <c r="F11" s="24">
+        <v>0</v>
+      </c>
+      <c r="F11" s="24" t="str">
         <f>+VLOOKUP(E11,'2'!N:O,2,FALSE)</f>
-        <v>52</v>
+        <v/>
       </c>
       <c r="G11" s="31"/>
       <c r="K11" s="9">
@@ -14297,11 +14303,11 @@
       </c>
       <c r="E12" s="24">
         <f>+LARGE('2'!N:N,D12)</f>
-        <v>32</v>
-      </c>
-      <c r="F12" s="24">
+        <v>0</v>
+      </c>
+      <c r="F12" s="24" t="str">
         <f>+VLOOKUP(E12,'2'!N:O,2,FALSE)</f>
-        <v>50</v>
+        <v/>
       </c>
       <c r="G12" s="31"/>
       <c r="K12" s="9">
@@ -14341,11 +14347,11 @@
       </c>
       <c r="E13" s="24">
         <f>+LARGE('2'!N:N,D13)</f>
-        <v>31</v>
-      </c>
-      <c r="F13" s="24">
+        <v>0</v>
+      </c>
+      <c r="F13" s="24" t="str">
         <f>+VLOOKUP(E13,'2'!N:O,2,FALSE)</f>
-        <v>6</v>
+        <v/>
       </c>
       <c r="G13" s="31"/>
       <c r="K13" s="9">
@@ -14387,11 +14393,11 @@
       </c>
       <c r="E14" s="24">
         <f>+LARGE('2'!N:N,D14)</f>
-        <v>30</v>
-      </c>
-      <c r="F14" s="24">
+        <v>0</v>
+      </c>
+      <c r="F14" s="24" t="str">
         <f>+VLOOKUP(E14,'2'!N:O,2,FALSE)</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="K14" s="9">
         <f t="shared" si="1"/>
@@ -14432,11 +14438,11 @@
       </c>
       <c r="E15" s="24">
         <f>+LARGE('2'!N:N,D15)</f>
-        <v>29</v>
-      </c>
-      <c r="F15" s="24">
+        <v>0</v>
+      </c>
+      <c r="F15" s="24" t="str">
         <f>+VLOOKUP(E15,'2'!N:O,2,FALSE)</f>
-        <v>23</v>
+        <v/>
       </c>
       <c r="K15" s="9">
         <f t="shared" si="1"/>
@@ -14477,11 +14483,11 @@
       </c>
       <c r="E16" s="24">
         <f>+LARGE('2'!N:N,D16)</f>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F16" s="24" t="str">
         <f>+VLOOKUP(E16,'2'!N:O,2,FALSE)</f>
-        <v>13/3</v>
+        <v/>
       </c>
       <c r="K16" s="9">
         <f t="shared" si="1"/>
@@ -14520,11 +14526,11 @@
       </c>
       <c r="E17" s="24">
         <f>+LARGE('2'!N:N,D17)</f>
-        <v>27</v>
-      </c>
-      <c r="F17" s="24">
+        <v>0</v>
+      </c>
+      <c r="F17" s="24" t="str">
         <f>+VLOOKUP(E17,'2'!N:O,2,FALSE)</f>
-        <v>19</v>
+        <v/>
       </c>
       <c r="K17" s="9">
         <f t="shared" si="1"/>
@@ -14563,11 +14569,11 @@
       </c>
       <c r="E18" s="24">
         <f>+LARGE('2'!N:N,D18)</f>
-        <v>26</v>
-      </c>
-      <c r="F18" s="24">
+        <v>0</v>
+      </c>
+      <c r="F18" s="24" t="str">
         <f>+VLOOKUP(E18,'2'!N:O,2,FALSE)</f>
-        <v>23</v>
+        <v/>
       </c>
       <c r="K18" s="9">
         <f t="shared" si="1"/>
@@ -14594,11 +14600,11 @@
       </c>
       <c r="E19" s="24">
         <f>+LARGE('2'!N:N,D19)</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F19" s="24" t="str">
         <f>+VLOOKUP(E19,'2'!N:O,2,FALSE)</f>
-        <v>7/1</v>
+        <v/>
       </c>
       <c r="K19" s="9">
         <f>+K18+1</f>
@@ -14625,11 +14631,11 @@
       </c>
       <c r="E20" s="24">
         <f>+LARGE('2'!N:N,D20)</f>
-        <v>24</v>
-      </c>
-      <c r="F20" s="24">
+        <v>0</v>
+      </c>
+      <c r="F20" s="24" t="str">
         <f>+VLOOKUP(E20,'2'!N:O,2,FALSE)</f>
-        <v>13</v>
+        <v/>
       </c>
       <c r="K20" s="9">
         <f t="shared" si="1"/>
@@ -14663,11 +14669,11 @@
       </c>
       <c r="E21" s="24">
         <f>+LARGE('2'!N:N,D21)</f>
-        <v>23</v>
-      </c>
-      <c r="F21" s="24">
+        <v>0</v>
+      </c>
+      <c r="F21" s="24" t="str">
         <f>+VLOOKUP(E21,'2'!N:O,2,FALSE)</f>
-        <v>5</v>
+        <v/>
       </c>
       <c r="K21" s="9">
         <f t="shared" si="1"/>
@@ -14702,11 +14708,11 @@
       </c>
       <c r="E22" s="24">
         <f>+LARGE('2'!N:N,D22)</f>
-        <v>22</v>
-      </c>
-      <c r="F22" s="24">
+        <v>0</v>
+      </c>
+      <c r="F22" s="24" t="str">
         <f>+VLOOKUP(E22,'2'!N:O,2,FALSE)</f>
-        <v>20</v>
+        <v/>
       </c>
       <c r="K22" s="9">
         <f t="shared" si="1"/>
@@ -14741,11 +14747,11 @@
       </c>
       <c r="E23" s="24">
         <f>+LARGE('2'!N:N,D23)</f>
-        <v>21</v>
-      </c>
-      <c r="F23" s="24">
+        <v>0</v>
+      </c>
+      <c r="F23" s="24" t="str">
         <f>+VLOOKUP(E23,'2'!N:O,2,FALSE)</f>
-        <v>22</v>
+        <v/>
       </c>
       <c r="K23" s="9">
         <f t="shared" si="1"/>
@@ -14780,11 +14786,11 @@
       </c>
       <c r="E24" s="24">
         <f>+LARGE('2'!N:N,D24)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F24" s="24" t="str">
         <f>+VLOOKUP(E24,'2'!N:O,2,FALSE)</f>
-        <v>18/2</v>
+        <v/>
       </c>
       <c r="K24" s="9">
         <f t="shared" si="1"/>
@@ -14819,11 +14825,11 @@
       </c>
       <c r="E25" s="24">
         <f>+LARGE('2'!N:N,D25)</f>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F25" s="24" t="str">
         <f>+VLOOKUP(E25,'2'!N:O,2,FALSE)</f>
-        <v>18/1</v>
+        <v/>
       </c>
       <c r="K25" s="9">
         <f t="shared" si="1"/>
@@ -14858,11 +14864,11 @@
       </c>
       <c r="E26" s="24">
         <f>+LARGE('2'!N:N,D26)</f>
-        <v>18</v>
-      </c>
-      <c r="F26" s="24">
+        <v>0</v>
+      </c>
+      <c r="F26" s="24" t="str">
         <f>+VLOOKUP(E26,'2'!N:O,2,FALSE)</f>
-        <v>17</v>
+        <v/>
       </c>
       <c r="K26" s="9">
         <f t="shared" si="1"/>
@@ -14897,11 +14903,11 @@
       </c>
       <c r="E27" s="24">
         <f>+LARGE('2'!N:N,D27)</f>
-        <v>17</v>
-      </c>
-      <c r="F27" s="24">
+        <v>0</v>
+      </c>
+      <c r="F27" s="24" t="str">
         <f>+VLOOKUP(E27,'2'!N:O,2,FALSE)</f>
-        <v>17</v>
+        <v/>
       </c>
       <c r="K27" s="9">
         <f t="shared" si="1"/>
@@ -14936,11 +14942,11 @@
       </c>
       <c r="E28" s="24">
         <f>+LARGE('2'!N:N,D28)</f>
-        <v>16</v>
-      </c>
-      <c r="F28" s="24">
+        <v>0</v>
+      </c>
+      <c r="F28" s="24" t="str">
         <f>+VLOOKUP(E28,'2'!N:O,2,FALSE)</f>
-        <v>15</v>
+        <v/>
       </c>
       <c r="K28" s="9">
         <f t="shared" si="1"/>
@@ -14975,11 +14981,11 @@
       </c>
       <c r="E29" s="24">
         <f>+LARGE('2'!N:N,D29)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F29" s="24" t="str">
         <f>+VLOOKUP(E29,'2'!N:O,2,FALSE)</f>
-        <v>8/1</v>
+        <v/>
       </c>
       <c r="K29" s="9">
         <f t="shared" si="1"/>
@@ -15014,11 +15020,11 @@
       </c>
       <c r="E30" s="24">
         <f>+LARGE('2'!N:N,D30)</f>
-        <v>14</v>
-      </c>
-      <c r="F30" s="24">
+        <v>0</v>
+      </c>
+      <c r="F30" s="24" t="str">
         <f>+VLOOKUP(E30,'2'!N:O,2,FALSE)</f>
-        <v>16</v>
+        <v/>
       </c>
       <c r="K30" s="9">
         <f t="shared" si="1"/>
@@ -15053,11 +15059,11 @@
       </c>
       <c r="E31" s="24">
         <f>+LARGE('2'!N:N,D31)</f>
-        <v>13</v>
-      </c>
-      <c r="F31" s="24">
+        <v>0</v>
+      </c>
+      <c r="F31" s="24" t="str">
         <f>+VLOOKUP(E31,'2'!N:O,2,FALSE)</f>
-        <v>19</v>
+        <v/>
       </c>
       <c r="K31" s="9">
         <f t="shared" si="1"/>
@@ -15092,11 +15098,11 @@
       </c>
       <c r="E32" s="24">
         <f>+LARGE('2'!N:N,D32)</f>
-        <v>12</v>
-      </c>
-      <c r="F32" s="24">
+        <v>0</v>
+      </c>
+      <c r="F32" s="24" t="str">
         <f>+VLOOKUP(E32,'2'!N:O,2,FALSE)</f>
-        <v>24</v>
+        <v/>
       </c>
       <c r="K32" s="9">
         <f t="shared" si="1"/>
@@ -15131,11 +15137,11 @@
       </c>
       <c r="E33" s="24">
         <f>+LARGE('2'!N:N,D33)</f>
-        <v>11</v>
-      </c>
-      <c r="F33" s="24">
+        <v>0</v>
+      </c>
+      <c r="F33" s="24" t="str">
         <f>+VLOOKUP(E33,'2'!N:O,2,FALSE)</f>
-        <v>17</v>
+        <v/>
       </c>
       <c r="K33" s="9">
         <f t="shared" si="1"/>
@@ -15170,11 +15176,11 @@
       </c>
       <c r="E34" s="24">
         <f>+LARGE('2'!N:N,D34)</f>
-        <v>10</v>
-      </c>
-      <c r="F34" s="24">
+        <v>0</v>
+      </c>
+      <c r="F34" s="24" t="str">
         <f>+VLOOKUP(E34,'2'!N:O,2,FALSE)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="K34" s="9">
         <f t="shared" si="1"/>
@@ -15209,11 +15215,11 @@
       </c>
       <c r="E35" s="24">
         <f>+LARGE('2'!N:N,D35)</f>
-        <v>9</v>
-      </c>
-      <c r="F35" s="24">
+        <v>0</v>
+      </c>
+      <c r="F35" s="24" t="str">
         <f>+VLOOKUP(E35,'2'!N:O,2,FALSE)</f>
-        <v>13</v>
+        <v/>
       </c>
       <c r="K35" s="9">
         <f t="shared" si="1"/>
@@ -15248,11 +15254,11 @@
       </c>
       <c r="E36" s="24">
         <f>+LARGE('2'!N:N,D36)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F36" s="24" t="str">
         <f>+VLOOKUP(E36,'2'!N:O,2,FALSE)</f>
-        <v>10Б</v>
+        <v/>
       </c>
       <c r="O36" s="25"/>
       <c r="P36" s="25"/>
@@ -15283,11 +15289,11 @@
       </c>
       <c r="E37" s="24">
         <f>+LARGE('2'!N:N,D37)</f>
-        <v>7</v>
-      </c>
-      <c r="F37" s="24">
+        <v>0</v>
+      </c>
+      <c r="F37" s="24" t="str">
         <f>+VLOOKUP(E37,'2'!N:O,2,FALSE)</f>
-        <v>8</v>
+        <v/>
       </c>
       <c r="O37" s="25"/>
       <c r="P37" s="25"/>
@@ -15318,11 +15324,11 @@
       </c>
       <c r="E38" s="24">
         <f>+LARGE('2'!N:N,D38)</f>
-        <v>6</v>
-      </c>
-      <c r="F38" s="24">
+        <v>0</v>
+      </c>
+      <c r="F38" s="24" t="str">
         <f>+VLOOKUP(E38,'2'!N:O,2,FALSE)</f>
-        <v>7</v>
+        <v/>
       </c>
       <c r="O38" s="25"/>
       <c r="P38" s="25"/>
@@ -15353,11 +15359,11 @@
       </c>
       <c r="E39" s="24">
         <f>+LARGE('2'!N:N,D39)</f>
-        <v>5</v>
-      </c>
-      <c r="F39" s="24">
+        <v>0</v>
+      </c>
+      <c r="F39" s="24" t="str">
         <f>+VLOOKUP(E39,'2'!N:O,2,FALSE)</f>
-        <v>21</v>
+        <v/>
       </c>
       <c r="O39" s="25"/>
       <c r="P39" s="25"/>
@@ -15388,11 +15394,11 @@
       </c>
       <c r="E40" s="24">
         <f>+LARGE('2'!N:N,D40)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F40" s="24" t="str">
         <f>+VLOOKUP(E40,'2'!N:O,2,FALSE)</f>
-        <v>6/2</v>
+        <v/>
       </c>
       <c r="O40" s="25"/>
       <c r="P40" s="25"/>
@@ -15409,11 +15415,11 @@
       </c>
       <c r="E41" s="24">
         <f>+LARGE('2'!N:N,D41)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F41" s="24" t="str">
         <f>+VLOOKUP(E41,'2'!N:O,2,FALSE)</f>
-        <v>6/1</v>
+        <v/>
       </c>
       <c r="O41" s="25"/>
       <c r="P41" s="25"/>
@@ -15430,11 +15436,11 @@
       </c>
       <c r="E42" s="24">
         <f>+LARGE('2'!N:N,D42)</f>
-        <v>2</v>
-      </c>
-      <c r="F42" s="24">
+        <v>0</v>
+      </c>
+      <c r="F42" s="24" t="str">
         <f>+VLOOKUP(E42,'2'!N:O,2,FALSE)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="O42" s="25"/>
       <c r="P42" s="25"/>
@@ -15451,11 +15457,11 @@
       </c>
       <c r="E43" s="24">
         <f>+LARGE('2'!N:N,D43)</f>
-        <v>1</v>
-      </c>
-      <c r="F43" s="24">
+        <v>0</v>
+      </c>
+      <c r="F43" s="24" t="str">
         <f>+VLOOKUP(E43,'2'!N:O,2,FALSE)</f>
-        <v>59</v>
+        <v/>
       </c>
       <c r="O43" s="25"/>
       <c r="P43" s="25"/>

--- a/05_Steamlit/Negtgel_office.xlsx
+++ b/05_Steamlit/Negtgel_office.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Office\05_Steamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B73DFC-FA33-4A05-BBDD-48EDFADC4980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B5D149-17C6-40EB-8E5A-15FEA70BF5DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3617,7 +3617,7 @@
   <dimension ref="A1:P194"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K178" sqref="K162:K178"/>
+      <selection activeCell="T149" sqref="T149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>

--- a/05_Steamlit/Negtgel_office.xlsx
+++ b/05_Steamlit/Negtgel_office.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Office\05_Steamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B5D149-17C6-40EB-8E5A-15FEA70BF5DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D014DF1F-218C-49EB-9BB5-F7A74F2623EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3617,7 +3617,7 @@
   <dimension ref="A1:P194"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T149" sqref="T149"/>
+      <selection activeCell="R136" sqref="R136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -9879,7 +9879,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="123" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" s="72">
         <v>121</v>
       </c>
@@ -9931,7 +9931,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="124" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" s="72">
         <v>122</v>
       </c>
@@ -9983,7 +9983,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="125" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" s="72">
         <v>123</v>
       </c>
@@ -10035,7 +10035,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="126" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" s="72">
         <v>124</v>
       </c>
@@ -10087,7 +10087,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="127" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" s="72">
         <v>125</v>
       </c>
@@ -10139,7 +10139,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="128" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" s="72">
         <v>126</v>
       </c>
@@ -10191,7 +10191,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="129" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" s="72">
         <v>127</v>
       </c>
@@ -10243,7 +10243,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="130" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" s="72">
         <v>128</v>
       </c>
@@ -10293,7 +10293,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="131" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" s="72">
         <v>129</v>
       </c>
@@ -10343,7 +10343,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="132" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" s="72">
         <v>130</v>
       </c>
@@ -10393,7 +10393,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="133" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" s="72">
         <v>131</v>
       </c>
@@ -10445,7 +10445,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="134" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" s="72">
         <v>132</v>
       </c>
@@ -10497,7 +10497,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="135" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" s="72">
         <v>133</v>
       </c>
@@ -10547,7 +10547,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="136" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" s="72">
         <v>134</v>
       </c>
@@ -10599,7 +10599,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="137" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" s="72">
         <v>135</v>
       </c>
@@ -10651,7 +10651,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="138" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" s="72">
         <v>136</v>
       </c>
@@ -10703,7 +10703,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="139" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" s="72">
         <v>137</v>
       </c>
@@ -10755,7 +10755,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="140" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" s="72">
         <v>138</v>
       </c>
@@ -10807,7 +10807,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="141" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" s="72">
         <v>139</v>
       </c>
@@ -10859,7 +10859,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="142" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" s="72">
         <v>140</v>
       </c>
@@ -10911,7 +10911,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="143" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" s="72">
         <v>141</v>
       </c>
@@ -10963,7 +10963,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="144" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" s="72">
         <v>142</v>
       </c>
@@ -11015,7 +11015,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="145" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145" s="72">
         <v>143</v>
       </c>
@@ -11067,7 +11067,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="72">
         <v>144</v>
       </c>
@@ -11119,7 +11119,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="72">
         <v>145</v>
       </c>
@@ -11169,7 +11169,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="72">
         <v>146</v>
       </c>
@@ -11217,7 +11217,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="72">
         <v>147</v>
       </c>
@@ -11267,7 +11267,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="72">
         <v>148</v>
       </c>
@@ -11319,7 +11319,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="72">
         <v>149</v>
       </c>
@@ -11371,7 +11371,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="72">
         <v>150</v>
       </c>
@@ -11423,7 +11423,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="72">
         <v>151</v>
       </c>
@@ -11475,7 +11475,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="72">
         <v>152</v>
       </c>
@@ -11528,7 +11528,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="72">
         <v>153</v>
       </c>
@@ -11580,7 +11580,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="72">
         <v>154</v>
       </c>
@@ -11632,7 +11632,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="72">
         <v>155</v>
       </c>
@@ -11684,7 +11684,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="72">
         <v>156</v>
       </c>
@@ -11736,7 +11736,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="72">
         <v>157</v>
       </c>
@@ -11788,7 +11788,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="72">
         <v>158</v>
       </c>
@@ -11840,7 +11840,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="72">
         <v>159</v>
       </c>
@@ -11892,7 +11892,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="72">
         <v>160</v>
       </c>
@@ -11944,7 +11944,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="72">
         <v>161</v>
       </c>
@@ -11996,7 +11996,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="72">
         <v>162</v>
       </c>
@@ -12048,7 +12048,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="72">
         <v>163</v>
       </c>
@@ -12100,7 +12100,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="72">
         <v>164</v>
       </c>
@@ -12152,7 +12152,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="72">
         <v>165</v>
       </c>
@@ -12204,7 +12204,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="72">
         <v>166</v>
       </c>
@@ -12256,7 +12256,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="72">
         <v>167</v>
       </c>
@@ -12308,7 +12308,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="72">
         <v>168</v>
       </c>
@@ -12360,7 +12360,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="72">
         <v>169</v>
       </c>
@@ -12412,7 +12412,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="72">
         <v>170</v>
       </c>
@@ -12464,7 +12464,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="72">
         <v>171</v>
       </c>
@@ -12516,7 +12516,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="72">
         <v>172</v>
       </c>
@@ -12568,7 +12568,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="72">
         <v>173</v>
       </c>
@@ -12620,7 +12620,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="72">
         <v>174</v>
       </c>
@@ -12672,7 +12672,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="72">
         <v>175</v>
       </c>
@@ -12724,7 +12724,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="72">
         <v>176</v>
       </c>
@@ -13556,7 +13556,7 @@
   <autoFilter ref="A2:K193" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="1">
       <filters>
-        <filter val="ХУД"/>
+        <filter val="БЗД"/>
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M3">
